--- a/03.指标管理/权益/指标定义表-权益类V1.3.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="581">
   <si>
     <t>主题域</t>
   </si>
@@ -1815,6 +1815,78 @@
   </si>
   <si>
     <t>换成可疑交易中的成交明细</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同期限产品收益率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品周期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品收益率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计不同产品周期，不同市场的各个产品的收益率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个月、3个月、6个月、一年、两年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同期限产品发行量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品发行量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险大类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险事件数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险发生市场占比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个风险类型的风险事件数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报风险事件概览</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有风险发生的市场和无风险发生的市场风险事件数占比，指经清算所排查后，上报到政府部门的风险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交明细</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行人逾期和违约名单</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2165,7 +2237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2458,6 +2530,121 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2476,110 +2663,134 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2599,24 +2810,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2632,122 +2825,23 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2755,68 +2849,77 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2843,13 +2946,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1010039</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>94740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2887,13 +2990,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2931,13 +3034,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>912457</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2973,16 +3076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2895601</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2371726</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>145257</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>202407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3005,7 +3108,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486651" y="17068801"/>
+          <a:off x="10439401" y="17745076"/>
           <a:ext cx="3695700" cy="2078831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3017,16 +3120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2371726</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>136526</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88901</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3049,7 +3152,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11172826" y="17011651"/>
+          <a:off x="10439401" y="19535776"/>
           <a:ext cx="3860800" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3320,11 +3423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K273"/>
+  <dimension ref="A1:K293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="A85:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3378,13 +3481,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="123" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12"/>
@@ -3399,9 +3502,9 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
@@ -3416,9 +3519,9 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
@@ -3435,9 +3538,9 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -3454,9 +3557,9 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -3473,9 +3576,9 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -3490,9 +3593,9 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="159"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="158" t="s">
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="123" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="12"/>
@@ -3509,9 +3612,9 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="159"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -3526,9 +3629,9 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="159"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="15" t="s">
@@ -3543,9 +3646,9 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="159"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="16" t="s">
@@ -3560,9 +3663,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="159"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="28" t="s">
@@ -3575,9 +3678,9 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="159"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="101" t="s">
@@ -3592,9 +3695,9 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="28" t="s">
@@ -3607,9 +3710,9 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="159"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28" t="s">
@@ -3622,9 +3725,9 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="159"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="102" t="s">
@@ -3637,9 +3740,9 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="28" t="s">
@@ -3652,9 +3755,9 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="158" t="s">
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="123" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="12"/>
@@ -3669,9 +3772,9 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="159"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
@@ -3684,9 +3787,9 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="159"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="160"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="104" t="s">
@@ -3699,9 +3802,9 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="159"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="235" t="s">
+      <c r="A21" s="124"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="132" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="12"/>
@@ -3718,9 +3821,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="159"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="236"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="104" t="s">
@@ -3733,9 +3836,9 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="159"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="237"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="15" t="s">
@@ -3750,9 +3853,9 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="159"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="137" t="s">
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="126" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="12"/>
@@ -3767,9 +3870,9 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="159"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="138"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
@@ -3782,9 +3885,9 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="159"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="138"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="127"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
@@ -3797,9 +3900,9 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="159"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="138"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
@@ -3812,9 +3915,9 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="138"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
@@ -3827,9 +3930,9 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="159"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="138"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
@@ -3842,9 +3945,9 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="160"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="139"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
@@ -3857,10 +3960,10 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="123" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="107" t="s">
@@ -3880,8 +3983,8 @@
       <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="138"/>
-      <c r="B32" s="159"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="12" t="s">
         <v>32</v>
       </c>
@@ -3899,8 +4002,8 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="138"/>
-      <c r="B33" s="159"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="107" t="s">
         <v>45</v>
       </c>
@@ -3916,8 +4019,8 @@
       <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="138"/>
-      <c r="B34" s="159"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="15" t="s">
         <v>473</v>
       </c>
@@ -3935,8 +4038,8 @@
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="138"/>
-      <c r="B35" s="159"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="107" t="s">
         <v>48</v>
       </c>
@@ -3952,8 +4055,8 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="138"/>
-      <c r="B36" s="159"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="107" t="s">
         <v>50</v>
       </c>
@@ -3971,11 +4074,11 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="138"/>
-      <c r="B37" s="137" t="s">
+      <c r="A37" s="127"/>
+      <c r="B37" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="137" t="s">
+      <c r="C37" s="126" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="12"/>
@@ -3990,9 +4093,9 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="138"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
@@ -4007,9 +4110,9 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="138"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="139"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
@@ -4024,14 +4127,14 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="138"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="137" t="s">
+      <c r="A40" s="127"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="245" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="28" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="12"/>
@@ -4043,12 +4146,12 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="138"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="246"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="28" t="s">
         <v>58</v>
       </c>
       <c r="G41" s="12"/>
@@ -4058,12 +4161,12 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="138"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="246"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="28" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="12"/>
@@ -4073,12 +4176,12 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="246"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="28" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="12"/>
@@ -4088,12 +4191,12 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="138"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="246"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="28" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="12"/>
@@ -4103,12 +4206,12 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="138"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="246"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="28" t="s">
         <v>60</v>
       </c>
       <c r="G45" s="12"/>
@@ -4118,12 +4221,12 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="138"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="139"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="247"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="28" t="s">
         <v>61</v>
       </c>
       <c r="G46" s="12"/>
@@ -4132,141 +4235,143 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="138"/>
-      <c r="B47" s="137" t="s">
+    <row r="47" spans="1:11" s="248" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="127"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="150" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="105" t="s">
+        <v>574</v>
+      </c>
+      <c r="G47" s="104"/>
+      <c r="H47" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+    </row>
+    <row r="48" spans="1:11" s="248" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="127"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="251"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105" t="s">
+        <v>575</v>
+      </c>
+      <c r="G48" s="104"/>
+      <c r="H48" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+    </row>
+    <row r="49" spans="1:11" s="248" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="127"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="105" t="s">
+        <v>573</v>
+      </c>
+      <c r="G49" s="104"/>
+      <c r="H49" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="127"/>
+      <c r="B50" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="148" t="s">
+      <c r="C50" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="138"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="138"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="138"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="150"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="F50" s="20"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="H50" s="22"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="138"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="148" t="s">
-        <v>72</v>
-      </c>
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="130"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="20" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="22" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="K51" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="138"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="149"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="130"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="22" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
+      <c r="K52" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="138"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="149"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="131"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="K53" s="19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="138"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="150"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="129" t="s">
+        <v>72</v>
+      </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="20" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="22" t="s">
@@ -4274,107 +4379,113 @@
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="139"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="130"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J55" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="148" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="148" t="s">
-        <v>80</v>
-      </c>
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="130"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13" t="s">
-        <v>82</v>
+      <c r="F56" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="149"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="131"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
+      <c r="F57" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="149"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
+      <c r="K57" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="12" t="s">
-        <v>84</v>
+      <c r="F58" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="H58" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="21"/>
       <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="149"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="149"/>
+      <c r="A59" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="129" t="s">
+        <v>80</v>
+      </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
+      <c r="H59" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="150"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="13"/>
@@ -4383,15 +4494,13 @@
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="149"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="155" t="s">
-        <v>474</v>
-      </c>
+      <c r="A61" s="130"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="130"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="13"/>
@@ -4400,168 +4509,164 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="149"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="156"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="15" t="s">
-        <v>475</v>
+      <c r="F62" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G62" s="12"/>
-      <c r="H62" s="14" t="s">
-        <v>476</v>
-      </c>
+      <c r="H62" s="13"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="149"/>
-      <c r="B63" s="149"/>
-      <c r="C63" s="156"/>
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="15" t="s">
-        <v>477</v>
+      <c r="F63" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G63" s="12"/>
-      <c r="H63" s="23" t="s">
-        <v>480</v>
-      </c>
+      <c r="H63" s="13"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="149"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="156"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="140" t="s">
+        <v>474</v>
+      </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="15" t="s">
-        <v>478</v>
+      <c r="F64" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G64" s="12"/>
-      <c r="H64" s="23" t="s">
-        <v>481</v>
-      </c>
+      <c r="H64" s="13"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="149"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="157"/>
+      <c r="A65" s="130"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="141"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G65" s="12"/>
-      <c r="H65" s="106" t="s">
-        <v>534</v>
+      <c r="H65" s="14" t="s">
+        <v>476</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="104"/>
+      <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="149"/>
-      <c r="B66" s="149"/>
-      <c r="C66" s="137" t="s">
-        <v>87</v>
-      </c>
+      <c r="A66" s="130"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="141"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="12" t="s">
-        <v>88</v>
+      <c r="F66" s="15" t="s">
+        <v>477</v>
       </c>
       <c r="G66" s="12"/>
-      <c r="H66" s="13" t="s">
-        <v>89</v>
+      <c r="H66" s="23" t="s">
+        <v>480</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="149"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="139"/>
+      <c r="A67" s="130"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="141"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="12" t="s">
-        <v>90</v>
+      <c r="F67" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="G67" s="12"/>
-      <c r="H67" s="110"/>
+      <c r="H67" s="23" t="s">
+        <v>481</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="149"/>
-      <c r="B68" s="149"/>
-      <c r="C68" s="148" t="s">
-        <v>91</v>
-      </c>
+      <c r="A68" s="130"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="142"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="12" t="s">
-        <v>90</v>
+      <c r="F68" s="15" t="s">
+        <v>479</v>
       </c>
       <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="106" t="s">
+        <v>534</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="K68" s="104"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="149"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="150"/>
+      <c r="A69" s="130"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="126" t="s">
+        <v>87</v>
+      </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="28" t="s">
-        <v>92</v>
+      <c r="F69" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="149"/>
-      <c r="B70" s="149"/>
-      <c r="C70" s="238" t="s">
-        <v>94</v>
-      </c>
+      <c r="A70" s="130"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="128"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G70" s="12"/>
-      <c r="H70" s="109" t="s">
-        <v>557</v>
-      </c>
+      <c r="H70" s="110"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="149"/>
-      <c r="B71" s="149"/>
-      <c r="C71" s="240"/>
+      <c r="A71" s="130"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="129" t="s">
+        <v>91</v>
+      </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="13"/>
@@ -4570,47 +4675,49 @@
       <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="149"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="238" t="s">
-        <v>97</v>
-      </c>
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="131"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="12" t="s">
-        <v>98</v>
+      <c r="F72" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
+      <c r="H72" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="149"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="240"/>
+      <c r="A73" s="130"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="239" t="s">
+        <v>94</v>
+      </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G73" s="12"/>
-      <c r="H73" s="13"/>
+      <c r="H73" s="122" t="s">
+        <v>557</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="149"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="137" t="s">
-        <v>99</v>
-      </c>
+      <c r="A74" s="130"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="241"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
@@ -4619,13 +4726,15 @@
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="149"/>
-      <c r="B75" s="149"/>
-      <c r="C75" s="139"/>
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="239" t="s">
+        <v>97</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
@@ -4634,15 +4743,13 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="149"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="241"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
@@ -4650,17 +4757,15 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="149"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="152" t="s">
-        <v>483</v>
+    <row r="77" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="253" t="s">
+        <v>580</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="15" t="s">
-        <v>484</v>
-      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
       <c r="I77" s="12"/>
@@ -4668,32 +4773,30 @@
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="149"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="139"/>
+      <c r="A78" s="130"/>
+      <c r="B78" s="130"/>
+      <c r="C78" s="126" t="s">
+        <v>99</v>
+      </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="15" t="s">
-        <v>485</v>
+      <c r="F78" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="G78" s="12"/>
-      <c r="H78" s="14" t="s">
-        <v>486</v>
-      </c>
+      <c r="H78" s="13"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="149"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="137" t="s">
-        <v>102</v>
-      </c>
+      <c r="A79" s="130"/>
+      <c r="B79" s="130"/>
+      <c r="C79" s="128"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
@@ -4702,13 +4805,15 @@
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="149"/>
-      <c r="B80" s="149"/>
-      <c r="C80" s="139"/>
+      <c r="A80" s="130"/>
+      <c r="B80" s="130"/>
+      <c r="C80" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
@@ -4717,15 +4822,15 @@
       <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="149"/>
-      <c r="B81" s="149"/>
-      <c r="C81" s="153" t="s">
-        <v>482</v>
+      <c r="A81" s="130"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="143" t="s">
+        <v>483</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="12" t="s">
-        <v>104</v>
+      <c r="F81" s="15" t="s">
+        <v>484</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
@@ -4734,32 +4839,32 @@
       <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="149"/>
-      <c r="B82" s="150"/>
-      <c r="C82" s="154"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="128"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="12" t="s">
-        <v>85</v>
+      <c r="F82" s="15" t="s">
+        <v>485</v>
       </c>
       <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
+      <c r="H82" s="14" t="s">
+        <v>486</v>
+      </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="149"/>
-      <c r="B83" s="148" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="137" t="s">
-        <v>106</v>
+      <c r="A83" s="130"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="126" t="s">
+        <v>102</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
@@ -4768,49 +4873,45 @@
       <c r="K83" s="12"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="149"/>
-      <c r="B84" s="149"/>
-      <c r="C84" s="138"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="128"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G84" s="12"/>
-      <c r="H84" s="111" t="s">
-        <v>524</v>
-      </c>
+      <c r="H84" s="13"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="15"/>
-    </row>
-    <row r="85" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="149"/>
-      <c r="B85" s="149"/>
-      <c r="C85" s="139"/>
+      <c r="K84" s="12"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="130"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="144" t="s">
+        <v>482</v>
+      </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="112" t="s">
-        <v>535</v>
+      <c r="F85" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="G85" s="12"/>
-      <c r="H85" s="24" t="s">
-        <v>487</v>
-      </c>
+      <c r="H85" s="13"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="15"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="149"/>
-      <c r="B86" s="149"/>
-      <c r="C86" s="148" t="s">
-        <v>109</v>
-      </c>
+      <c r="K85" s="12"/>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="145"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
@@ -4819,13 +4920,17 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="149"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="149"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="126" t="s">
+        <v>106</v>
+      </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="13"/>
@@ -4834,43 +4939,43 @@
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="149"/>
-      <c r="B88" s="149"/>
-      <c r="C88" s="149"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="127"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="25" t="s">
-        <v>111</v>
+      <c r="F88" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
+      <c r="H88" s="111" t="s">
+        <v>524</v>
+      </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="149"/>
-      <c r="B89" s="149"/>
-      <c r="C89" s="150"/>
+      <c r="K88" s="15"/>
+    </row>
+    <row r="89" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="130"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="128"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="12" t="s">
-        <v>112</v>
+      <c r="F89" s="112" t="s">
+        <v>535</v>
       </c>
       <c r="G89" s="12"/>
-      <c r="H89" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>489</v>
-      </c>
+      <c r="H89" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="I89" s="12"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
+      <c r="K89" s="15"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="149"/>
-      <c r="B90" s="149"/>
-      <c r="C90" s="148" t="s">
+      <c r="A90" s="130"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="129" t="s">
         <v>109</v>
       </c>
       <c r="D90" s="12"/>
@@ -4885,9 +4990,9 @@
       <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="149"/>
-      <c r="B91" s="149"/>
-      <c r="C91" s="149"/>
+      <c r="A91" s="130"/>
+      <c r="B91" s="130"/>
+      <c r="C91" s="130"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12" t="s">
@@ -4899,10 +5004,10 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="149"/>
-      <c r="B92" s="149"/>
-      <c r="C92" s="149"/>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="130"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="25" t="s">
@@ -4915,51 +5020,49 @@
       <c r="K92" s="12"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="149"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="150"/>
+      <c r="A93" s="130"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="131"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="I93" s="12"/>
+        <v>488</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>489</v>
+      </c>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="149"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="242" t="s">
-        <v>492</v>
+      <c r="A94" s="130"/>
+      <c r="B94" s="130"/>
+      <c r="C94" s="129" t="s">
+        <v>109</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G94" s="12"/>
-      <c r="H94" s="14" t="s">
-        <v>491</v>
-      </c>
+      <c r="H94" s="13"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
-      <c r="K94" s="15" t="s">
-        <v>493</v>
-      </c>
+      <c r="K94" s="12"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="149"/>
-      <c r="B95" s="149"/>
-      <c r="C95" s="239"/>
+      <c r="A95" s="130"/>
+      <c r="B95" s="130"/>
+      <c r="C95" s="130"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="13"/>
@@ -4967,14 +5070,14 @@
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="149"/>
-      <c r="B96" s="149"/>
-      <c r="C96" s="239"/>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="130"/>
+      <c r="B96" s="130"/>
+      <c r="C96" s="130"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
-      <c r="F96" s="12" t="s">
-        <v>116</v>
+      <c r="F96" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="13"/>
@@ -4983,45 +5086,51 @@
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="149"/>
-      <c r="B97" s="149"/>
-      <c r="C97" s="239"/>
+      <c r="A97" s="130"/>
+      <c r="B97" s="130"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G97" s="12"/>
-      <c r="H97" s="109" t="s">
-        <v>536</v>
+      <c r="H97" s="14" t="s">
+        <v>490</v>
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="149"/>
-      <c r="B98" s="149"/>
-      <c r="C98" s="239"/>
+      <c r="A98" s="130"/>
+      <c r="B98" s="130"/>
+      <c r="C98" s="239" t="s">
+        <v>492</v>
+      </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
+      <c r="H98" s="14" t="s">
+        <v>491</v>
+      </c>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
+      <c r="K98" s="15" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="149"/>
-      <c r="B99" s="149"/>
-      <c r="C99" s="239"/>
+      <c r="A99" s="130"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="240"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="13"/>
@@ -5030,13 +5139,13 @@
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="149"/>
-      <c r="B100" s="149"/>
-      <c r="C100" s="239"/>
+      <c r="A100" s="130"/>
+      <c r="B100" s="130"/>
+      <c r="C100" s="240"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
@@ -5045,30 +5154,30 @@
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="149"/>
-      <c r="B101" s="149"/>
+      <c r="A101" s="130"/>
+      <c r="B101" s="130"/>
       <c r="C101" s="240"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
+      <c r="H101" s="109" t="s">
+        <v>536</v>
+      </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="149"/>
-      <c r="B102" s="149"/>
-      <c r="C102" s="12" t="s">
-        <v>121</v>
-      </c>
+      <c r="A102" s="130"/>
+      <c r="B102" s="130"/>
+      <c r="C102" s="240"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="13"/>
@@ -5077,49 +5186,43 @@
       <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="149"/>
-      <c r="B103" s="149"/>
-      <c r="C103" s="148" t="s">
-        <v>123</v>
-      </c>
+      <c r="A103" s="130"/>
+      <c r="B103" s="130"/>
+      <c r="C103" s="240"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G103" s="12"/>
-      <c r="H103" s="17" t="s">
-        <v>494</v>
-      </c>
+      <c r="H103" s="13"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="149"/>
-      <c r="B104" s="149"/>
-      <c r="C104" s="149"/>
+      <c r="A104" s="130"/>
+      <c r="B104" s="130"/>
+      <c r="C104" s="240"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
-      <c r="F104" s="28" t="s">
-        <v>125</v>
+      <c r="F104" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="G104" s="12"/>
-      <c r="H104" s="17" t="s">
-        <v>495</v>
-      </c>
+      <c r="H104" s="13"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
-      <c r="K104" s="103"/>
+      <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="149"/>
-      <c r="B105" s="149"/>
-      <c r="C105" s="150"/>
+      <c r="A105" s="130"/>
+      <c r="B105" s="130"/>
+      <c r="C105" s="241"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
@@ -5127,16 +5230,16 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="149"/>
-      <c r="B106" s="149"/>
-      <c r="C106" s="148" t="s">
-        <v>127</v>
+    <row r="106" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="130"/>
+      <c r="B106" s="130"/>
+      <c r="C106" s="150" t="s">
+        <v>563</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
-      <c r="F106" s="12" t="s">
-        <v>128</v>
+      <c r="F106" s="104" t="s">
+        <v>564</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="13"/>
@@ -5145,979 +5248,1025 @@
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="149"/>
-      <c r="B107" s="149"/>
-      <c r="C107" s="149"/>
+      <c r="A107" s="130"/>
+      <c r="B107" s="130"/>
+      <c r="C107" s="251"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
-      <c r="F107" s="12" t="s">
-        <v>129</v>
+      <c r="F107" s="104" t="s">
+        <v>565</v>
       </c>
       <c r="G107" s="12"/>
-      <c r="H107" s="106" t="s">
-        <v>525</v>
-      </c>
+      <c r="H107" s="13"/>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="149"/>
-      <c r="B108" s="149"/>
-      <c r="C108" s="150"/>
+      <c r="A108" s="130"/>
+      <c r="B108" s="130"/>
+      <c r="C108" s="251"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="12" t="s">
-        <v>127</v>
+      <c r="F108" s="104" t="s">
+        <v>566</v>
       </c>
       <c r="G108" s="12"/>
-      <c r="H108" s="13"/>
+      <c r="H108" s="109" t="s">
+        <v>569</v>
+      </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="149"/>
-      <c r="B109" s="149"/>
-      <c r="C109" s="148" t="s">
-        <v>130</v>
-      </c>
+      <c r="A109" s="130"/>
+      <c r="B109" s="130"/>
+      <c r="C109" s="252"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
-      <c r="F109" s="12" t="s">
-        <v>128</v>
+      <c r="F109" s="104" t="s">
+        <v>567</v>
       </c>
       <c r="G109" s="12"/>
-      <c r="H109" s="13"/>
+      <c r="H109" s="109" t="s">
+        <v>568</v>
+      </c>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="149"/>
-      <c r="B110" s="149"/>
-      <c r="C110" s="149"/>
+    <row r="110" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="130"/>
+      <c r="B110" s="130"/>
+      <c r="C110" s="150" t="s">
+        <v>570</v>
+      </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="12" t="s">
-        <v>131</v>
+      <c r="F110" s="104" t="s">
+        <v>564</v>
       </c>
       <c r="G110" s="12"/>
-      <c r="H110" s="13" t="s">
-        <v>496</v>
-      </c>
+      <c r="H110" s="109"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="149"/>
-      <c r="B111" s="149"/>
-      <c r="C111" s="150"/>
+      <c r="A111" s="130"/>
+      <c r="B111" s="130"/>
+      <c r="C111" s="251"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="12" t="s">
-        <v>130</v>
+      <c r="F111" s="104" t="s">
+        <v>565</v>
       </c>
       <c r="G111" s="12"/>
-      <c r="H111" s="13"/>
+      <c r="H111" s="109"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="149"/>
-      <c r="B112" s="150"/>
-      <c r="C112" s="26" t="s">
-        <v>132</v>
-      </c>
+      <c r="A112" s="130"/>
+      <c r="B112" s="130"/>
+      <c r="C112" s="251"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
-      <c r="F112" s="12" t="s">
-        <v>16</v>
+      <c r="F112" s="104" t="s">
+        <v>566</v>
       </c>
       <c r="G112" s="12"/>
-      <c r="H112" s="14" t="s">
-        <v>497</v>
+      <c r="H112" s="109" t="s">
+        <v>569</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="149"/>
-      <c r="B113" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="C113" s="151" t="s">
-        <v>498</v>
-      </c>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="130"/>
+      <c r="B113" s="130"/>
+      <c r="C113" s="252"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
-      <c r="F113" s="105" t="s">
-        <v>554</v>
+      <c r="F113" s="104" t="s">
+        <v>571</v>
       </c>
       <c r="G113" s="12"/>
-      <c r="H113" s="27" t="s">
-        <v>555</v>
+      <c r="H113" s="109" t="s">
+        <v>568</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
-      <c r="K113" s="104" t="s">
-        <v>526</v>
-      </c>
+      <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="149"/>
-      <c r="B114" s="149"/>
-      <c r="C114" s="150"/>
+      <c r="A114" s="130"/>
+      <c r="B114" s="130"/>
+      <c r="C114" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G114" s="12"/>
-      <c r="H114" s="109" t="s">
-        <v>553</v>
-      </c>
+      <c r="H114" s="13"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="149"/>
-      <c r="B115" s="149"/>
-      <c r="C115" s="12" t="s">
-        <v>135</v>
+      <c r="A115" s="130"/>
+      <c r="B115" s="130"/>
+      <c r="C115" s="129" t="s">
+        <v>123</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G115" s="12"/>
-      <c r="H115" s="13" t="s">
-        <v>137</v>
+      <c r="H115" s="17" t="s">
+        <v>494</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="149"/>
-      <c r="B116" s="149"/>
-      <c r="C116" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="A116" s="130"/>
+      <c r="B116" s="130"/>
+      <c r="C116" s="130"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
-      <c r="F116" s="12" t="s">
-        <v>138</v>
+      <c r="F116" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="G116" s="12"/>
-      <c r="H116" s="13" t="s">
-        <v>139</v>
+      <c r="H116" s="17" t="s">
+        <v>495</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
+      <c r="K116" s="103"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="149"/>
-      <c r="B117" s="149"/>
-      <c r="C117" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="A117" s="130"/>
+      <c r="B117" s="130"/>
+      <c r="C117" s="131"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="18" t="s">
-        <v>140</v>
+      <c r="F117" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="G117" s="12"/>
-      <c r="H117" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="I117" s="15"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="12"/>
       <c r="J117" s="12"/>
-      <c r="K117" s="104" t="s">
-        <v>538</v>
-      </c>
+      <c r="K117" s="12"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="149"/>
-      <c r="B118" s="149"/>
-      <c r="C118" s="104" t="s">
-        <v>537</v>
+      <c r="A118" s="130"/>
+      <c r="B118" s="130"/>
+      <c r="C118" s="242" t="s">
+        <v>127</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
-      <c r="F118" s="18" t="s">
-        <v>141</v>
+      <c r="F118" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="G118" s="12"/>
-      <c r="H118" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="I118" s="24"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="12"/>
       <c r="J118" s="12"/>
-      <c r="K118" s="15"/>
-    </row>
-    <row r="119" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="149"/>
-      <c r="B119" s="149"/>
-      <c r="C119" s="238" t="s">
-        <v>142</v>
-      </c>
+      <c r="K118" s="12"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="130"/>
+      <c r="B119" s="130"/>
+      <c r="C119" s="243"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
-      <c r="F119" s="105" t="s">
-        <v>529</v>
+      <c r="F119" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G119" s="12"/>
-      <c r="H119" s="113" t="s">
-        <v>539</v>
+      <c r="H119" s="106" t="s">
+        <v>525</v>
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
-      <c r="K119" s="115" t="s">
-        <v>540</v>
-      </c>
+      <c r="K119" s="12"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="149"/>
-      <c r="B120" s="149"/>
-      <c r="C120" s="239"/>
+      <c r="A120" s="130"/>
+      <c r="B120" s="130"/>
+      <c r="C120" s="244"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
-      <c r="F120" s="114" t="s">
-        <v>501</v>
-      </c>
-      <c r="G120" s="28"/>
-      <c r="H120" s="106" t="s">
-        <v>542</v>
-      </c>
+      <c r="F120" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120" s="12"/>
+      <c r="H120" s="13"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
-      <c r="K120" s="28"/>
+      <c r="K120" s="12"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="149"/>
-      <c r="B121" s="149"/>
-      <c r="C121" s="239"/>
+      <c r="A121" s="130"/>
+      <c r="B121" s="130"/>
+      <c r="C121" s="129" t="s">
+        <v>130</v>
+      </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="G121" s="28"/>
-      <c r="H121" s="110"/>
+      <c r="F121" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" s="12"/>
+      <c r="H121" s="13"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
-      <c r="K121" s="105" t="s">
-        <v>527</v>
-      </c>
+      <c r="K121" s="12"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="149"/>
-      <c r="B122" s="149"/>
-      <c r="C122" s="239"/>
+      <c r="A122" s="130"/>
+      <c r="B122" s="130"/>
+      <c r="C122" s="130"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
-      <c r="F122" s="114" t="s">
-        <v>503</v>
-      </c>
-      <c r="G122" s="28"/>
-      <c r="H122" s="241" t="s">
-        <v>562</v>
+      <c r="F122" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="13" t="s">
+        <v>496</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
-      <c r="K122" s="105" t="s">
-        <v>528</v>
-      </c>
+      <c r="K122" s="12"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="149"/>
-      <c r="B123" s="149"/>
-      <c r="C123" s="239"/>
+      <c r="A123" s="130"/>
+      <c r="B123" s="130"/>
+      <c r="C123" s="131"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
-      <c r="F123" s="105" t="s">
-        <v>551</v>
-      </c>
-      <c r="G123" s="28"/>
-      <c r="H123" s="110"/>
+      <c r="F123" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" s="12"/>
+      <c r="H123" s="13"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
-      <c r="K123" s="105"/>
+      <c r="K123" s="12"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="149"/>
-      <c r="B124" s="149"/>
-      <c r="C124" s="240"/>
+      <c r="A124" s="130"/>
+      <c r="B124" s="131"/>
+      <c r="C124" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="105" t="s">
-        <v>530</v>
+      <c r="F124" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="G124" s="12"/>
-      <c r="H124" s="109" t="s">
-        <v>541</v>
+      <c r="H124" s="14" t="s">
+        <v>497</v>
       </c>
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="149"/>
-      <c r="B125" s="149"/>
-      <c r="C125" s="12" t="s">
-        <v>121</v>
+    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="130"/>
+      <c r="B125" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="146" t="s">
+        <v>498</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
-      <c r="F125" s="12" t="s">
-        <v>143</v>
+      <c r="F125" s="105" t="s">
+        <v>554</v>
       </c>
       <c r="G125" s="12"/>
-      <c r="H125" s="13"/>
+      <c r="H125" s="27" t="s">
+        <v>555</v>
+      </c>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
+      <c r="K125" s="104" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="149"/>
-      <c r="B126" s="149"/>
-      <c r="C126" s="131" t="s">
-        <v>548</v>
-      </c>
+      <c r="A126" s="130"/>
+      <c r="B126" s="130"/>
+      <c r="C126" s="131"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
-      <c r="F126" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="G126" s="116"/>
-      <c r="H126" s="117"/>
-      <c r="I126" s="116"/>
-      <c r="J126" s="116"/>
-      <c r="K126" s="118"/>
+      <c r="F126" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G126" s="12"/>
+      <c r="H126" s="109" t="s">
+        <v>553</v>
+      </c>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="149"/>
-      <c r="B127" s="149"/>
-      <c r="C127" s="132"/>
+      <c r="A127" s="130"/>
+      <c r="B127" s="130"/>
+      <c r="C127" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G127" s="12"/>
-      <c r="H127" s="106"/>
+      <c r="H127" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A128" s="149"/>
-      <c r="B128" s="149"/>
-      <c r="C128" s="133"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="130"/>
+      <c r="B128" s="130"/>
+      <c r="C128" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="G128" s="116"/>
-      <c r="H128" s="119" t="s">
-        <v>505</v>
-      </c>
-      <c r="I128" s="116"/>
-      <c r="J128" s="116"/>
-      <c r="K128" s="118" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="149"/>
-      <c r="B129" s="149"/>
-      <c r="C129" s="131" t="s">
-        <v>549</v>
+      <c r="F128" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="130"/>
+      <c r="B129" s="130"/>
+      <c r="C129" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="116" t="s">
-        <v>86</v>
+      <c r="F129" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="G129" s="12"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="12"/>
+      <c r="H129" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="I129" s="15"/>
       <c r="J129" s="12"/>
-      <c r="K129" s="118" t="s">
-        <v>544</v>
+      <c r="K129" s="104" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="149"/>
-      <c r="B130" s="149"/>
-      <c r="C130" s="132"/>
+      <c r="A130" s="130"/>
+      <c r="B130" s="130"/>
+      <c r="C130" s="104" t="s">
+        <v>537</v>
+      </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="12" t="s">
-        <v>144</v>
+      <c r="F130" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="G130" s="12"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="12"/>
+      <c r="H130" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="I130" s="24"/>
       <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="149"/>
-      <c r="B131" s="149"/>
-      <c r="C131" s="133"/>
+      <c r="K130" s="15"/>
+    </row>
+    <row r="131" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="130"/>
+      <c r="B131" s="130"/>
+      <c r="C131" s="239" t="s">
+        <v>142</v>
+      </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
-      <c r="F131" s="104" t="s">
-        <v>545</v>
+      <c r="F131" s="105" t="s">
+        <v>529</v>
       </c>
       <c r="G131" s="12"/>
-      <c r="H131" s="110" t="s">
-        <v>146</v>
+      <c r="H131" s="113" t="s">
+        <v>539</v>
       </c>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-    </row>
-    <row r="132" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="149"/>
-      <c r="B132" s="149"/>
-      <c r="C132" s="134" t="s">
-        <v>547</v>
-      </c>
+      <c r="K131" s="115" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="130"/>
+      <c r="B132" s="130"/>
+      <c r="C132" s="240"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
-      <c r="F132" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G132" s="12"/>
-      <c r="H132" s="13"/>
+      <c r="F132" s="114" t="s">
+        <v>501</v>
+      </c>
+      <c r="G132" s="28"/>
+      <c r="H132" s="106" t="s">
+        <v>542</v>
+      </c>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
-      <c r="K132" s="118" t="s">
-        <v>544</v>
-      </c>
+      <c r="K132" s="28"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="149"/>
-      <c r="B133" s="149"/>
-      <c r="C133" s="135"/>
+      <c r="A133" s="130"/>
+      <c r="B133" s="130"/>
+      <c r="C133" s="240"/>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
-      <c r="F133" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
+      <c r="F133" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="G133" s="28"/>
+      <c r="H133" s="110"/>
       <c r="I133" s="12"/>
       <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
+      <c r="K133" s="105" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="149"/>
-      <c r="B134" s="149"/>
-      <c r="C134" s="136"/>
+      <c r="A134" s="130"/>
+      <c r="B134" s="130"/>
+      <c r="C134" s="240"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
-      <c r="F134" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="109" t="s">
-        <v>546</v>
+      <c r="F134" s="114" t="s">
+        <v>503</v>
+      </c>
+      <c r="G134" s="28"/>
+      <c r="H134" s="122" t="s">
+        <v>562</v>
       </c>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-    </row>
-    <row r="135" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="149"/>
-      <c r="B135" s="138" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="108" t="s">
-        <v>149</v>
-      </c>
+      <c r="K134" s="105" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="130"/>
+      <c r="B135" s="130"/>
+      <c r="C135" s="240"/>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
-      <c r="F135" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="121" t="s">
-        <v>552</v>
-      </c>
+      <c r="F135" s="105" t="s">
+        <v>551</v>
+      </c>
+      <c r="G135" s="28"/>
+      <c r="H135" s="110"/>
+      <c r="I135" s="12"/>
       <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
+      <c r="K135" s="105"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="149"/>
-      <c r="B136" s="138"/>
-      <c r="C136" s="12" t="s">
-        <v>151</v>
-      </c>
+      <c r="A136" s="130"/>
+      <c r="B136" s="130"/>
+      <c r="C136" s="241"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
-      <c r="F136" s="12" t="s">
-        <v>152</v>
+      <c r="F136" s="105" t="s">
+        <v>530</v>
       </c>
       <c r="G136" s="12"/>
-      <c r="H136" s="13" t="s">
-        <v>153</v>
+      <c r="H136" s="109" t="s">
+        <v>541</v>
       </c>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="149"/>
-      <c r="B137" s="138"/>
-      <c r="C137" s="12" t="s">
-        <v>121</v>
+      <c r="A137" s="130"/>
+      <c r="B137" s="130"/>
+      <c r="C137" s="147" t="s">
+        <v>579</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="G137" s="12"/>
-      <c r="H137" s="13"/>
+      <c r="H137" s="109"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
       <c r="K137" s="12"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="149"/>
-      <c r="B138" s="138"/>
-      <c r="C138" s="12" t="s">
-        <v>155</v>
-      </c>
+      <c r="A138" s="130"/>
+      <c r="B138" s="130"/>
+      <c r="C138" s="249"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="G138" s="12"/>
-      <c r="H138" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="H138" s="109"/>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="149"/>
-      <c r="B139" s="139"/>
-      <c r="C139" s="12" t="s">
-        <v>158</v>
-      </c>
+      <c r="A139" s="130"/>
+      <c r="B139" s="130"/>
+      <c r="C139" s="249"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
+      <c r="F139" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="G139" s="12"/>
-      <c r="H139" s="13"/>
+      <c r="H139" s="109"/>
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="149"/>
-      <c r="B140" s="148" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" s="137" t="s">
-        <v>160</v>
-      </c>
+      <c r="A140" s="130"/>
+      <c r="B140" s="130"/>
+      <c r="C140" s="249"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="G140" s="12"/>
-      <c r="H140" s="13"/>
+      <c r="H140" s="109"/>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="149"/>
-      <c r="B141" s="149"/>
-      <c r="C141" s="138"/>
+      <c r="A141" s="130"/>
+      <c r="B141" s="130"/>
+      <c r="C141" s="249"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G141" s="12"/>
-      <c r="H141" s="13"/>
+      <c r="H141" s="109"/>
       <c r="I141" s="12"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="149"/>
-      <c r="B142" s="149"/>
-      <c r="C142" s="139"/>
+      <c r="A142" s="130"/>
+      <c r="B142" s="130"/>
+      <c r="C142" s="249"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="G142" s="12"/>
-      <c r="H142" s="13"/>
+      <c r="H142" s="109"/>
       <c r="I142" s="12"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="150"/>
-      <c r="B143" s="150"/>
-      <c r="C143" s="12" t="s">
-        <v>164</v>
-      </c>
+      <c r="A143" s="130"/>
+      <c r="B143" s="130"/>
+      <c r="C143" s="249"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="G143" s="12"/>
-      <c r="H143" s="13"/>
+      <c r="H143" s="109"/>
       <c r="I143" s="12"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="161" t="s">
+      <c r="A144" s="130"/>
+      <c r="B144" s="130"/>
+      <c r="C144" s="250"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G144" s="12"/>
+      <c r="H144" s="109"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="130"/>
+      <c r="B145" s="130"/>
+      <c r="C145" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G145" s="12"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="130"/>
+      <c r="B146" s="130"/>
+      <c r="C146" s="147" t="s">
+        <v>548</v>
+      </c>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G146" s="116"/>
+      <c r="H146" s="117"/>
+      <c r="I146" s="116"/>
+      <c r="J146" s="116"/>
+      <c r="K146" s="118"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="130"/>
+      <c r="B147" s="130"/>
+      <c r="C147" s="148"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G147" s="12"/>
+      <c r="H147" s="106"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+    </row>
+    <row r="148" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A148" s="130"/>
+      <c r="B148" s="130"/>
+      <c r="C148" s="149"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="G148" s="116"/>
+      <c r="H148" s="119" t="s">
+        <v>505</v>
+      </c>
+      <c r="I148" s="116"/>
+      <c r="J148" s="116"/>
+      <c r="K148" s="118" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="130"/>
+      <c r="B149" s="130"/>
+      <c r="C149" s="147" t="s">
+        <v>549</v>
+      </c>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G149" s="12"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="118" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="130"/>
+      <c r="B150" s="130"/>
+      <c r="C150" s="148"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G150" s="12"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="130"/>
+      <c r="B151" s="130"/>
+      <c r="C151" s="149"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="104" t="s">
+        <v>545</v>
+      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+    </row>
+    <row r="152" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="130"/>
+      <c r="B152" s="130"/>
+      <c r="C152" s="150" t="s">
+        <v>547</v>
+      </c>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G152" s="12"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="118" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="130"/>
+      <c r="B153" s="130"/>
+      <c r="C153" s="151"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G153" s="12"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="130"/>
+      <c r="B154" s="130"/>
+      <c r="C154" s="152"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G154" s="12"/>
+      <c r="H154" s="109" t="s">
+        <v>546</v>
+      </c>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+    </row>
+    <row r="155" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="130"/>
+      <c r="B155" s="127" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G155" s="12"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="121" t="s">
+        <v>552</v>
+      </c>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="130"/>
+      <c r="B156" s="127"/>
+      <c r="C156" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G156" s="12"/>
+      <c r="H156" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="130"/>
+      <c r="B157" s="127"/>
+      <c r="C157" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G157" s="12"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="130"/>
+      <c r="B158" s="127"/>
+      <c r="C158" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G158" s="12"/>
+      <c r="H158" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="130"/>
+      <c r="B159" s="128"/>
+      <c r="C159" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="130"/>
+      <c r="B160" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G160" s="12"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="130"/>
+      <c r="B161" s="130"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G161" s="12"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="130"/>
+      <c r="B162" s="130"/>
+      <c r="C162" s="128"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G162" s="12"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="131"/>
+      <c r="B163" s="131"/>
+      <c r="C163" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G163" s="12"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="B144" s="128" t="s">
+      <c r="B164" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="C144" s="140" t="s">
+      <c r="C164" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="D144" s="128" t="s">
+      <c r="D164" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="F144" s="20" t="s">
+      <c r="F164" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="22" t="s">
+      <c r="H164" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="19"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="162"/>
-      <c r="B145" s="129"/>
-      <c r="C145" s="141"/>
-      <c r="D145" s="130"/>
-      <c r="F145" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H145" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I145" s="29"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="19"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="162"/>
-      <c r="B146" s="129"/>
-      <c r="C146" s="141"/>
-      <c r="D146" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F146" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H146" s="22"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="19"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="162"/>
-      <c r="B147" s="129"/>
-      <c r="C147" s="141"/>
-      <c r="D147" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="F147" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H147" s="22"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="19"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="162"/>
-      <c r="B148" s="129"/>
-      <c r="C148" s="141"/>
-      <c r="D148" s="129"/>
-      <c r="F148" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H148" s="22"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="19"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="162"/>
-      <c r="B149" s="129"/>
-      <c r="C149" s="141"/>
-      <c r="D149" s="130"/>
-      <c r="F149" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H149" s="22"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="29"/>
-      <c r="K149" s="19"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="162"/>
-      <c r="B150" s="129"/>
-      <c r="C150" s="141"/>
-      <c r="D150" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="H150" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="I150" s="29"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="19"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="162"/>
-      <c r="B151" s="129"/>
-      <c r="C151" s="141"/>
-      <c r="D151" s="130"/>
-      <c r="F151" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="H151" s="22"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="29"/>
-      <c r="K151" s="32"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="162"/>
-      <c r="B152" s="129"/>
-      <c r="C152" s="141"/>
-      <c r="D152" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="F152" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H152" s="22"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="19"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="162"/>
-      <c r="B153" s="129"/>
-      <c r="C153" s="141"/>
-      <c r="D153" s="130"/>
-      <c r="F153" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="H153" s="22"/>
-      <c r="I153" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="J153" s="33"/>
-      <c r="K153" s="19"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="162"/>
-      <c r="B154" s="129"/>
-      <c r="C154" s="141"/>
-      <c r="D154" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="F154" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="H154" s="22"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="33"/>
-      <c r="K154" s="19"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="162"/>
-      <c r="B155" s="129"/>
-      <c r="C155" s="141"/>
-      <c r="D155" s="129"/>
-      <c r="F155" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H155" s="22"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="33"/>
-      <c r="K155" s="19"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="162"/>
-      <c r="B156" s="129"/>
-      <c r="C156" s="141"/>
-      <c r="D156" s="129"/>
-      <c r="F156" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H156" s="22"/>
-      <c r="I156" s="33"/>
-      <c r="J156" s="33"/>
-      <c r="K156" s="19"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="162"/>
-      <c r="B157" s="129"/>
-      <c r="C157" s="141"/>
-      <c r="D157" s="129"/>
-      <c r="F157" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H157" s="22"/>
-      <c r="I157" s="33"/>
-      <c r="J157" s="33"/>
-      <c r="K157" s="19"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="162"/>
-      <c r="B158" s="129"/>
-      <c r="C158" s="141"/>
-      <c r="D158" s="129"/>
-      <c r="F158" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H158" s="22"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="33"/>
-      <c r="K158" s="19"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="162"/>
-      <c r="B159" s="129"/>
-      <c r="C159" s="142"/>
-      <c r="D159" s="130"/>
-      <c r="F159" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="H159" s="22"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="34"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="162"/>
-      <c r="B160" s="129"/>
-      <c r="C160" s="145" t="s">
-        <v>189</v>
-      </c>
-      <c r="D160" s="128" t="s">
-        <v>189</v>
-      </c>
-      <c r="F160" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H160" s="22"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="19"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="162"/>
-      <c r="B161" s="129"/>
-      <c r="C161" s="146"/>
-      <c r="D161" s="129"/>
-      <c r="F161" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H161" s="22"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="29"/>
-      <c r="K161" s="19"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="162"/>
-      <c r="B162" s="129"/>
-      <c r="C162" s="146"/>
-      <c r="D162" s="129"/>
-      <c r="F162" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H162" s="22"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="29"/>
-      <c r="K162" s="19"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="162"/>
-      <c r="B163" s="129"/>
-      <c r="C163" s="146"/>
-      <c r="D163" s="129"/>
-      <c r="F163" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="H163" s="22"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="19"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="162"/>
-      <c r="B164" s="129"/>
-      <c r="C164" s="146"/>
-      <c r="D164" s="129"/>
-      <c r="F164" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H164" s="22"/>
       <c r="I164" s="29"/>
       <c r="J164" s="29"/>
       <c r="K164" s="19"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="162"/>
-      <c r="B165" s="129"/>
-      <c r="C165" s="146"/>
-      <c r="D165" s="129"/>
-      <c r="F165" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="H165" s="22"/>
+      <c r="A165" s="139"/>
+      <c r="B165" s="136"/>
+      <c r="C165" s="154"/>
+      <c r="D165" s="137"/>
+      <c r="F165" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H165" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="I165" s="29"/>
       <c r="J165" s="29"/>
       <c r="K165" s="19"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="162"/>
-      <c r="B166" s="129"/>
-      <c r="C166" s="146"/>
-      <c r="D166" s="129"/>
-      <c r="F166" s="35" t="s">
-        <v>195</v>
+      <c r="A166" s="139"/>
+      <c r="B166" s="136"/>
+      <c r="C166" s="154"/>
+      <c r="D166" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F166" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="29"/>
@@ -6125,12 +6274,14 @@
       <c r="K166" s="19"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="162"/>
-      <c r="B167" s="129"/>
-      <c r="C167" s="146"/>
-      <c r="D167" s="129"/>
+      <c r="A167" s="139"/>
+      <c r="B167" s="136"/>
+      <c r="C167" s="154"/>
+      <c r="D167" s="135" t="s">
+        <v>172</v>
+      </c>
       <c r="F167" s="20" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="H167" s="22"/>
       <c r="I167" s="29"/>
@@ -6138,12 +6289,12 @@
       <c r="K167" s="19"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="162"/>
-      <c r="B168" s="129"/>
-      <c r="C168" s="146"/>
-      <c r="D168" s="129"/>
+      <c r="A168" s="139"/>
+      <c r="B168" s="136"/>
+      <c r="C168" s="154"/>
+      <c r="D168" s="136"/>
       <c r="F168" s="20" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="29"/>
@@ -6151,12 +6302,12 @@
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="162"/>
-      <c r="B169" s="129"/>
-      <c r="C169" s="146"/>
-      <c r="D169" s="129"/>
+      <c r="A169" s="139"/>
+      <c r="B169" s="136"/>
+      <c r="C169" s="154"/>
+      <c r="D169" s="137"/>
       <c r="F169" s="20" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="H169" s="22"/>
       <c r="I169" s="29"/>
@@ -6164,38 +6315,44 @@
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="162"/>
-      <c r="B170" s="129"/>
-      <c r="C170" s="146"/>
-      <c r="D170" s="129"/>
+      <c r="A170" s="139"/>
+      <c r="B170" s="136"/>
+      <c r="C170" s="154"/>
+      <c r="D170" s="135" t="s">
+        <v>176</v>
+      </c>
       <c r="F170" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H170" s="22"/>
+        <v>177</v>
+      </c>
+      <c r="H170" s="31" t="s">
+        <v>178</v>
+      </c>
       <c r="I170" s="29"/>
       <c r="J170" s="29"/>
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="162"/>
-      <c r="B171" s="129"/>
-      <c r="C171" s="146"/>
-      <c r="D171" s="129"/>
+      <c r="A171" s="139"/>
+      <c r="B171" s="136"/>
+      <c r="C171" s="154"/>
+      <c r="D171" s="137"/>
       <c r="F171" s="20" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H171" s="22"/>
       <c r="I171" s="29"/>
       <c r="J171" s="29"/>
-      <c r="K171" s="19"/>
+      <c r="K171" s="32"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="162"/>
-      <c r="B172" s="129"/>
-      <c r="C172" s="146"/>
-      <c r="D172" s="129"/>
+      <c r="A172" s="139"/>
+      <c r="B172" s="136"/>
+      <c r="C172" s="154"/>
+      <c r="D172" s="135" t="s">
+        <v>180</v>
+      </c>
       <c r="F172" s="20" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="H172" s="22"/>
       <c r="I172" s="29"/>
@@ -6203,103 +6360,111 @@
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="162"/>
-      <c r="B173" s="129"/>
-      <c r="C173" s="146"/>
-      <c r="D173" s="129"/>
+      <c r="A173" s="139"/>
+      <c r="B173" s="136"/>
+      <c r="C173" s="154"/>
+      <c r="D173" s="137"/>
       <c r="F173" s="20" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="H173" s="22"/>
-      <c r="I173" s="29"/>
-      <c r="J173" s="29"/>
+      <c r="I173" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="J173" s="33"/>
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="162"/>
-      <c r="B174" s="129"/>
-      <c r="C174" s="146"/>
-      <c r="D174" s="129"/>
+      <c r="A174" s="139"/>
+      <c r="B174" s="136"/>
+      <c r="C174" s="154"/>
+      <c r="D174" s="135" t="s">
+        <v>183</v>
+      </c>
       <c r="F174" s="20" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="H174" s="22"/>
-      <c r="I174" s="29"/>
-      <c r="J174" s="29"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="33"/>
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="162"/>
-      <c r="B175" s="129"/>
-      <c r="C175" s="146"/>
-      <c r="D175" s="129"/>
+      <c r="A175" s="139"/>
+      <c r="B175" s="136"/>
+      <c r="C175" s="154"/>
+      <c r="D175" s="136"/>
       <c r="F175" s="20" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H175" s="22"/>
-      <c r="I175" s="29"/>
-      <c r="J175" s="29"/>
+      <c r="I175" s="33"/>
+      <c r="J175" s="33"/>
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="162"/>
-      <c r="B176" s="129"/>
-      <c r="C176" s="146"/>
-      <c r="D176" s="129"/>
+      <c r="A176" s="139"/>
+      <c r="B176" s="136"/>
+      <c r="C176" s="154"/>
+      <c r="D176" s="136"/>
       <c r="F176" s="20" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H176" s="22"/>
-      <c r="I176" s="29"/>
-      <c r="J176" s="29"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="162"/>
-      <c r="B177" s="129"/>
-      <c r="C177" s="146"/>
-      <c r="D177" s="129"/>
+      <c r="A177" s="139"/>
+      <c r="B177" s="136"/>
+      <c r="C177" s="154"/>
+      <c r="D177" s="136"/>
       <c r="F177" s="20" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="H177" s="22"/>
-      <c r="I177" s="29"/>
-      <c r="J177" s="29"/>
+      <c r="I177" s="33"/>
+      <c r="J177" s="33"/>
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="162"/>
-      <c r="B178" s="129"/>
-      <c r="C178" s="146"/>
-      <c r="D178" s="129"/>
+      <c r="A178" s="139"/>
+      <c r="B178" s="136"/>
+      <c r="C178" s="154"/>
+      <c r="D178" s="136"/>
       <c r="F178" s="20" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H178" s="22"/>
-      <c r="I178" s="29"/>
-      <c r="J178" s="29"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="33"/>
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="162"/>
-      <c r="B179" s="129"/>
-      <c r="C179" s="146"/>
-      <c r="D179" s="129"/>
+      <c r="A179" s="139"/>
+      <c r="B179" s="136"/>
+      <c r="C179" s="155"/>
+      <c r="D179" s="137"/>
       <c r="F179" s="20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="H179" s="22"/>
-      <c r="I179" s="29"/>
-      <c r="J179" s="29"/>
-      <c r="K179" s="19"/>
+      <c r="I179" s="33"/>
+      <c r="J179" s="33"/>
+      <c r="K179" s="34"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="162"/>
-      <c r="B180" s="129"/>
-      <c r="C180" s="146"/>
-      <c r="D180" s="129"/>
+      <c r="A180" s="139"/>
+      <c r="B180" s="136"/>
+      <c r="C180" s="158" t="s">
+        <v>189</v>
+      </c>
+      <c r="D180" s="135" t="s">
+        <v>189</v>
+      </c>
       <c r="F180" s="20" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="29"/>
@@ -6307,12 +6472,12 @@
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="162"/>
-      <c r="B181" s="129"/>
-      <c r="C181" s="146"/>
-      <c r="D181" s="129"/>
+      <c r="A181" s="139"/>
+      <c r="B181" s="136"/>
+      <c r="C181" s="159"/>
+      <c r="D181" s="136"/>
       <c r="F181" s="20" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H181" s="22"/>
       <c r="I181" s="29"/>
@@ -6320,12 +6485,12 @@
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="162"/>
-      <c r="B182" s="129"/>
-      <c r="C182" s="146"/>
-      <c r="D182" s="129"/>
+      <c r="A182" s="139"/>
+      <c r="B182" s="136"/>
+      <c r="C182" s="159"/>
+      <c r="D182" s="136"/>
       <c r="F182" s="20" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="H182" s="22"/>
       <c r="I182" s="29"/>
@@ -6333,12 +6498,12 @@
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="162"/>
-      <c r="B183" s="129"/>
-      <c r="C183" s="146"/>
-      <c r="D183" s="129"/>
+      <c r="A183" s="139"/>
+      <c r="B183" s="136"/>
+      <c r="C183" s="159"/>
+      <c r="D183" s="136"/>
       <c r="F183" s="20" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="H183" s="22"/>
       <c r="I183" s="29"/>
@@ -6346,12 +6511,12 @@
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="162"/>
-      <c r="B184" s="129"/>
-      <c r="C184" s="146"/>
-      <c r="D184" s="129"/>
-      <c r="F184" s="20" t="s">
-        <v>213</v>
+      <c r="A184" s="139"/>
+      <c r="B184" s="136"/>
+      <c r="C184" s="159"/>
+      <c r="D184" s="136"/>
+      <c r="F184" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="H184" s="22"/>
       <c r="I184" s="29"/>
@@ -6359,12 +6524,12 @@
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="162"/>
-      <c r="B185" s="129"/>
-      <c r="C185" s="146"/>
-      <c r="D185" s="129"/>
-      <c r="F185" s="20" t="s">
-        <v>214</v>
+      <c r="A185" s="139"/>
+      <c r="B185" s="136"/>
+      <c r="C185" s="159"/>
+      <c r="D185" s="136"/>
+      <c r="F185" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="H185" s="22"/>
       <c r="I185" s="29"/>
@@ -6372,12 +6537,12 @@
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="162"/>
-      <c r="B186" s="129"/>
-      <c r="C186" s="146"/>
-      <c r="D186" s="129"/>
-      <c r="F186" s="20" t="s">
-        <v>215</v>
+      <c r="A186" s="139"/>
+      <c r="B186" s="136"/>
+      <c r="C186" s="159"/>
+      <c r="D186" s="136"/>
+      <c r="F186" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="H186" s="22"/>
       <c r="I186" s="29"/>
@@ -6385,12 +6550,12 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="162"/>
-      <c r="B187" s="129"/>
-      <c r="C187" s="146"/>
-      <c r="D187" s="129"/>
+      <c r="A187" s="139"/>
+      <c r="B187" s="136"/>
+      <c r="C187" s="159"/>
+      <c r="D187" s="136"/>
       <c r="F187" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="H187" s="22"/>
       <c r="I187" s="29"/>
@@ -6398,12 +6563,12 @@
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="162"/>
-      <c r="B188" s="129"/>
-      <c r="C188" s="146"/>
-      <c r="D188" s="129"/>
+      <c r="A188" s="139"/>
+      <c r="B188" s="136"/>
+      <c r="C188" s="159"/>
+      <c r="D188" s="136"/>
       <c r="F188" s="20" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H188" s="22"/>
       <c r="I188" s="29"/>
@@ -6411,12 +6576,12 @@
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="162"/>
-      <c r="B189" s="129"/>
-      <c r="C189" s="146"/>
-      <c r="D189" s="129"/>
+      <c r="A189" s="139"/>
+      <c r="B189" s="136"/>
+      <c r="C189" s="159"/>
+      <c r="D189" s="136"/>
       <c r="F189" s="20" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="H189" s="22"/>
       <c r="I189" s="29"/>
@@ -6424,12 +6589,12 @@
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="162"/>
-      <c r="B190" s="129"/>
-      <c r="C190" s="147"/>
-      <c r="D190" s="130"/>
+      <c r="A190" s="139"/>
+      <c r="B190" s="136"/>
+      <c r="C190" s="159"/>
+      <c r="D190" s="136"/>
       <c r="F190" s="20" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="H190" s="22"/>
       <c r="I190" s="29"/>
@@ -6437,16 +6602,12 @@
       <c r="K190" s="19"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="162"/>
-      <c r="B191" s="129"/>
-      <c r="C191" s="145" t="s">
-        <v>220</v>
-      </c>
-      <c r="D191" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="A191" s="139"/>
+      <c r="B191" s="136"/>
+      <c r="C191" s="159"/>
+      <c r="D191" s="136"/>
       <c r="F191" s="20" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H191" s="22"/>
       <c r="I191" s="29"/>
@@ -6454,12 +6615,12 @@
       <c r="K191" s="19"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="162"/>
-      <c r="B192" s="129"/>
-      <c r="C192" s="146"/>
-      <c r="D192" s="129"/>
+      <c r="A192" s="139"/>
+      <c r="B192" s="136"/>
+      <c r="C192" s="159"/>
+      <c r="D192" s="136"/>
       <c r="F192" s="20" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="H192" s="22"/>
       <c r="I192" s="29"/>
@@ -6467,12 +6628,12 @@
       <c r="K192" s="19"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="162"/>
-      <c r="B193" s="129"/>
-      <c r="C193" s="146"/>
-      <c r="D193" s="129"/>
+      <c r="A193" s="139"/>
+      <c r="B193" s="136"/>
+      <c r="C193" s="159"/>
+      <c r="D193" s="136"/>
       <c r="F193" s="20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="H193" s="22"/>
       <c r="I193" s="29"/>
@@ -6480,12 +6641,12 @@
       <c r="K193" s="19"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="162"/>
-      <c r="B194" s="129"/>
-      <c r="C194" s="146"/>
-      <c r="D194" s="129"/>
+      <c r="A194" s="139"/>
+      <c r="B194" s="136"/>
+      <c r="C194" s="159"/>
+      <c r="D194" s="136"/>
       <c r="F194" s="20" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H194" s="22"/>
       <c r="I194" s="29"/>
@@ -6493,12 +6654,12 @@
       <c r="K194" s="19"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="162"/>
-      <c r="B195" s="129"/>
-      <c r="C195" s="146"/>
-      <c r="D195" s="129"/>
+      <c r="A195" s="139"/>
+      <c r="B195" s="136"/>
+      <c r="C195" s="159"/>
+      <c r="D195" s="136"/>
       <c r="F195" s="20" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H195" s="22"/>
       <c r="I195" s="29"/>
@@ -6506,12 +6667,12 @@
       <c r="K195" s="19"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="162"/>
-      <c r="B196" s="129"/>
-      <c r="C196" s="146"/>
-      <c r="D196" s="129"/>
+      <c r="A196" s="139"/>
+      <c r="B196" s="136"/>
+      <c r="C196" s="159"/>
+      <c r="D196" s="136"/>
       <c r="F196" s="20" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H196" s="22"/>
       <c r="I196" s="29"/>
@@ -6519,12 +6680,12 @@
       <c r="K196" s="19"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="162"/>
-      <c r="B197" s="129"/>
-      <c r="C197" s="146"/>
-      <c r="D197" s="129"/>
+      <c r="A197" s="139"/>
+      <c r="B197" s="136"/>
+      <c r="C197" s="159"/>
+      <c r="D197" s="136"/>
       <c r="F197" s="20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H197" s="22"/>
       <c r="I197" s="29"/>
@@ -6532,12 +6693,12 @@
       <c r="K197" s="19"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="162"/>
-      <c r="B198" s="129"/>
-      <c r="C198" s="146"/>
-      <c r="D198" s="129"/>
+      <c r="A198" s="139"/>
+      <c r="B198" s="136"/>
+      <c r="C198" s="159"/>
+      <c r="D198" s="136"/>
       <c r="F198" s="20" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H198" s="22"/>
       <c r="I198" s="29"/>
@@ -6545,12 +6706,12 @@
       <c r="K198" s="19"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="162"/>
-      <c r="B199" s="129"/>
-      <c r="C199" s="146"/>
-      <c r="D199" s="129"/>
+      <c r="A199" s="139"/>
+      <c r="B199" s="136"/>
+      <c r="C199" s="159"/>
+      <c r="D199" s="136"/>
       <c r="F199" s="20" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H199" s="22"/>
       <c r="I199" s="29"/>
@@ -6558,12 +6719,12 @@
       <c r="K199" s="19"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="162"/>
-      <c r="B200" s="129"/>
-      <c r="C200" s="146"/>
-      <c r="D200" s="129"/>
+      <c r="A200" s="139"/>
+      <c r="B200" s="136"/>
+      <c r="C200" s="159"/>
+      <c r="D200" s="136"/>
       <c r="F200" s="20" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H200" s="22"/>
       <c r="I200" s="29"/>
@@ -6571,12 +6732,12 @@
       <c r="K200" s="19"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="162"/>
-      <c r="B201" s="129"/>
-      <c r="C201" s="146"/>
-      <c r="D201" s="129"/>
+      <c r="A201" s="139"/>
+      <c r="B201" s="136"/>
+      <c r="C201" s="159"/>
+      <c r="D201" s="136"/>
       <c r="F201" s="20" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H201" s="22"/>
       <c r="I201" s="29"/>
@@ -6584,12 +6745,12 @@
       <c r="K201" s="19"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="162"/>
-      <c r="B202" s="129"/>
-      <c r="C202" s="146"/>
-      <c r="D202" s="129"/>
+      <c r="A202" s="139"/>
+      <c r="B202" s="136"/>
+      <c r="C202" s="159"/>
+      <c r="D202" s="136"/>
       <c r="F202" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" s="29"/>
@@ -6597,12 +6758,12 @@
       <c r="K202" s="19"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="162"/>
-      <c r="B203" s="129"/>
-      <c r="C203" s="146"/>
-      <c r="D203" s="129"/>
+      <c r="A203" s="139"/>
+      <c r="B203" s="136"/>
+      <c r="C203" s="159"/>
+      <c r="D203" s="136"/>
       <c r="F203" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H203" s="22"/>
       <c r="I203" s="29"/>
@@ -6610,12 +6771,12 @@
       <c r="K203" s="19"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="162"/>
-      <c r="B204" s="129"/>
-      <c r="C204" s="146"/>
-      <c r="D204" s="129"/>
+      <c r="A204" s="139"/>
+      <c r="B204" s="136"/>
+      <c r="C204" s="159"/>
+      <c r="D204" s="136"/>
       <c r="F204" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H204" s="22"/>
       <c r="I204" s="29"/>
@@ -6623,12 +6784,12 @@
       <c r="K204" s="19"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="162"/>
-      <c r="B205" s="129"/>
-      <c r="C205" s="146"/>
-      <c r="D205" s="129"/>
+      <c r="A205" s="139"/>
+      <c r="B205" s="136"/>
+      <c r="C205" s="159"/>
+      <c r="D205" s="136"/>
       <c r="F205" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H205" s="22"/>
       <c r="I205" s="29"/>
@@ -6636,12 +6797,12 @@
       <c r="K205" s="19"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="162"/>
-      <c r="B206" s="129"/>
-      <c r="C206" s="146"/>
-      <c r="D206" s="129"/>
+      <c r="A206" s="139"/>
+      <c r="B206" s="136"/>
+      <c r="C206" s="159"/>
+      <c r="D206" s="136"/>
       <c r="F206" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H206" s="22"/>
       <c r="I206" s="29"/>
@@ -6649,12 +6810,12 @@
       <c r="K206" s="19"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="162"/>
-      <c r="B207" s="129"/>
-      <c r="C207" s="147"/>
-      <c r="D207" s="130"/>
+      <c r="A207" s="139"/>
+      <c r="B207" s="136"/>
+      <c r="C207" s="159"/>
+      <c r="D207" s="136"/>
       <c r="F207" s="20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H207" s="22"/>
       <c r="I207" s="29"/>
@@ -6662,16 +6823,12 @@
       <c r="K207" s="19"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="162"/>
-      <c r="B208" s="129"/>
-      <c r="C208" s="140" t="s">
-        <v>227</v>
-      </c>
-      <c r="D208" s="128" t="s">
-        <v>227</v>
-      </c>
+      <c r="A208" s="139"/>
+      <c r="B208" s="136"/>
+      <c r="C208" s="159"/>
+      <c r="D208" s="136"/>
       <c r="F208" s="20" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="H208" s="22"/>
       <c r="I208" s="29"/>
@@ -6679,12 +6836,12 @@
       <c r="K208" s="19"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="162"/>
-      <c r="B209" s="129"/>
-      <c r="C209" s="141"/>
-      <c r="D209" s="129"/>
+      <c r="A209" s="139"/>
+      <c r="B209" s="136"/>
+      <c r="C209" s="159"/>
+      <c r="D209" s="136"/>
       <c r="F209" s="20" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H209" s="22"/>
       <c r="I209" s="29"/>
@@ -6692,278 +6849,280 @@
       <c r="K209" s="19"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="162"/>
-      <c r="B210" s="129"/>
-      <c r="C210" s="141"/>
-      <c r="D210" s="129"/>
+      <c r="A210" s="139"/>
+      <c r="B210" s="136"/>
+      <c r="C210" s="160"/>
+      <c r="D210" s="137"/>
       <c r="F210" s="20" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="H210" s="22"/>
-      <c r="I210" s="21"/>
-      <c r="J210" s="21"/>
+      <c r="I210" s="29"/>
+      <c r="J210" s="29"/>
       <c r="K210" s="19"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="162"/>
-      <c r="B211" s="129"/>
-      <c r="C211" s="141"/>
-      <c r="D211" s="129"/>
+      <c r="A211" s="139"/>
+      <c r="B211" s="136"/>
+      <c r="C211" s="158" t="s">
+        <v>220</v>
+      </c>
+      <c r="D211" s="135" t="s">
+        <v>220</v>
+      </c>
       <c r="F211" s="20" t="s">
         <v>190</v>
       </c>
       <c r="H211" s="22"/>
-      <c r="I211" s="21"/>
-      <c r="J211" s="21"/>
+      <c r="I211" s="29"/>
+      <c r="J211" s="29"/>
       <c r="K211" s="19"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="162"/>
-      <c r="B212" s="129"/>
-      <c r="C212" s="141"/>
-      <c r="D212" s="129"/>
+      <c r="A212" s="139"/>
+      <c r="B212" s="136"/>
+      <c r="C212" s="159"/>
+      <c r="D212" s="136"/>
       <c r="F212" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H212" s="22"/>
+      <c r="I212" s="29"/>
+      <c r="J212" s="29"/>
+      <c r="K212" s="19"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" s="139"/>
+      <c r="B213" s="136"/>
+      <c r="C213" s="159"/>
+      <c r="D213" s="136"/>
+      <c r="F213" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H213" s="22"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="29"/>
+      <c r="K213" s="19"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" s="139"/>
+      <c r="B214" s="136"/>
+      <c r="C214" s="159"/>
+      <c r="D214" s="136"/>
+      <c r="F214" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="H214" s="22"/>
+      <c r="I214" s="29"/>
+      <c r="J214" s="29"/>
+      <c r="K214" s="19"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" s="139"/>
+      <c r="B215" s="136"/>
+      <c r="C215" s="159"/>
+      <c r="D215" s="136"/>
+      <c r="F215" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="H212" s="22"/>
-      <c r="I212" s="21"/>
-      <c r="J212" s="21"/>
-      <c r="K212" s="19"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="162"/>
-      <c r="B213" s="129"/>
-      <c r="C213" s="141"/>
-      <c r="D213" s="129"/>
-      <c r="F213" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H213" s="22"/>
-      <c r="I213" s="21"/>
-      <c r="J213" s="21"/>
-      <c r="K213" s="19"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="162"/>
-      <c r="B214" s="129"/>
-      <c r="C214" s="141"/>
-      <c r="D214" s="129"/>
-      <c r="F214" s="20" t="s">
+      <c r="H215" s="22"/>
+      <c r="I215" s="29"/>
+      <c r="J215" s="29"/>
+      <c r="K215" s="19"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216" s="139"/>
+      <c r="B216" s="136"/>
+      <c r="C216" s="159"/>
+      <c r="D216" s="136"/>
+      <c r="F216" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="H216" s="22"/>
+      <c r="I216" s="29"/>
+      <c r="J216" s="29"/>
+      <c r="K216" s="19"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" s="139"/>
+      <c r="B217" s="136"/>
+      <c r="C217" s="159"/>
+      <c r="D217" s="136"/>
+      <c r="F217" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H217" s="22"/>
+      <c r="I217" s="29"/>
+      <c r="J217" s="29"/>
+      <c r="K217" s="19"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" s="139"/>
+      <c r="B218" s="136"/>
+      <c r="C218" s="159"/>
+      <c r="D218" s="136"/>
+      <c r="F218" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H218" s="22"/>
+      <c r="I218" s="29"/>
+      <c r="J218" s="29"/>
+      <c r="K218" s="19"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219" s="139"/>
+      <c r="B219" s="136"/>
+      <c r="C219" s="159"/>
+      <c r="D219" s="136"/>
+      <c r="F219" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="H219" s="22"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29"/>
+      <c r="K219" s="19"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220" s="139"/>
+      <c r="B220" s="136"/>
+      <c r="C220" s="159"/>
+      <c r="D220" s="136"/>
+      <c r="F220" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H220" s="22"/>
+      <c r="I220" s="29"/>
+      <c r="J220" s="29"/>
+      <c r="K220" s="19"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" s="139"/>
+      <c r="B221" s="136"/>
+      <c r="C221" s="159"/>
+      <c r="D221" s="136"/>
+      <c r="F221" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H221" s="22"/>
+      <c r="I221" s="29"/>
+      <c r="J221" s="29"/>
+      <c r="K221" s="19"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" s="139"/>
+      <c r="B222" s="136"/>
+      <c r="C222" s="159"/>
+      <c r="D222" s="136"/>
+      <c r="F222" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H222" s="22"/>
+      <c r="I222" s="29"/>
+      <c r="J222" s="29"/>
+      <c r="K222" s="19"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223" s="139"/>
+      <c r="B223" s="136"/>
+      <c r="C223" s="159"/>
+      <c r="D223" s="136"/>
+      <c r="F223" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H223" s="22"/>
+      <c r="I223" s="29"/>
+      <c r="J223" s="29"/>
+      <c r="K223" s="19"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" s="139"/>
+      <c r="B224" s="136"/>
+      <c r="C224" s="159"/>
+      <c r="D224" s="136"/>
+      <c r="F224" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="H224" s="22"/>
+      <c r="I224" s="29"/>
+      <c r="J224" s="29"/>
+      <c r="K224" s="19"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" s="139"/>
+      <c r="B225" s="136"/>
+      <c r="C225" s="159"/>
+      <c r="D225" s="136"/>
+      <c r="F225" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="H225" s="22"/>
+      <c r="I225" s="29"/>
+      <c r="J225" s="29"/>
+      <c r="K225" s="19"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" s="139"/>
+      <c r="B226" s="136"/>
+      <c r="C226" s="159"/>
+      <c r="D226" s="136"/>
+      <c r="F226" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H226" s="22"/>
+      <c r="I226" s="29"/>
+      <c r="J226" s="29"/>
+      <c r="K226" s="19"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="139"/>
+      <c r="B227" s="136"/>
+      <c r="C227" s="160"/>
+      <c r="D227" s="137"/>
+      <c r="F227" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="H214" s="22"/>
-      <c r="I214" s="21"/>
-      <c r="J214" s="21"/>
-      <c r="K214" s="19"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="162"/>
-      <c r="B215" s="129"/>
-      <c r="C215" s="141"/>
-      <c r="D215" s="129"/>
-      <c r="F215" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H215" s="22"/>
-      <c r="I215" s="21"/>
-      <c r="J215" s="21"/>
-      <c r="K215" s="19"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="162"/>
-      <c r="B216" s="129"/>
-      <c r="C216" s="141"/>
-      <c r="D216" s="129"/>
-      <c r="F216" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="H216" s="22"/>
-      <c r="I216" s="21"/>
-      <c r="J216" s="21"/>
-      <c r="K216" s="19"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="162"/>
-      <c r="B217" s="129"/>
-      <c r="C217" s="141"/>
-      <c r="D217" s="129"/>
-      <c r="F217" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="H217" s="22"/>
-      <c r="I217" s="21"/>
-      <c r="J217" s="21"/>
-      <c r="K217" s="19"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="162"/>
-      <c r="B218" s="129"/>
-      <c r="C218" s="141"/>
-      <c r="D218" s="129"/>
-      <c r="F218" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H218" s="22"/>
-      <c r="I218" s="21"/>
-      <c r="J218" s="21"/>
-      <c r="K218" s="19"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="162"/>
-      <c r="B219" s="129"/>
-      <c r="C219" s="141"/>
-      <c r="D219" s="129"/>
-      <c r="F219" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H219" s="22"/>
-      <c r="I219" s="21"/>
-      <c r="J219" s="21"/>
-      <c r="K219" s="19"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="162"/>
-      <c r="B220" s="129"/>
-      <c r="C220" s="141"/>
-      <c r="D220" s="129"/>
-      <c r="F220" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="H220" s="22"/>
-      <c r="I220" s="21"/>
-      <c r="J220" s="21"/>
-      <c r="K220" s="19"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="162"/>
-      <c r="B221" s="129"/>
-      <c r="C221" s="141"/>
-      <c r="D221" s="129"/>
-      <c r="F221" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H221" s="22"/>
-      <c r="I221" s="21"/>
-      <c r="J221" s="21"/>
-      <c r="K221" s="19"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="162"/>
-      <c r="B222" s="129"/>
-      <c r="C222" s="141"/>
-      <c r="D222" s="129"/>
-      <c r="F222" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H222" s="22"/>
-      <c r="I222" s="21"/>
-      <c r="J222" s="21"/>
-      <c r="K222" s="19"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="162"/>
-      <c r="B223" s="129"/>
-      <c r="C223" s="141"/>
-      <c r="D223" s="129"/>
-      <c r="F223" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H223" s="22"/>
-      <c r="I223" s="21"/>
-      <c r="J223" s="21"/>
-      <c r="K223" s="19"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="162"/>
-      <c r="B224" s="129"/>
-      <c r="C224" s="141"/>
-      <c r="D224" s="129"/>
-      <c r="F224" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="H224" s="22"/>
-      <c r="I224" s="21"/>
-      <c r="J224" s="21"/>
-      <c r="K224" s="19"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="162"/>
-      <c r="B225" s="129"/>
-      <c r="C225" s="141"/>
-      <c r="D225" s="129"/>
-      <c r="F225" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H225" s="22"/>
-      <c r="I225" s="21"/>
-      <c r="J225" s="21"/>
-      <c r="K225" s="19"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="162"/>
-      <c r="B226" s="129"/>
-      <c r="C226" s="141"/>
-      <c r="D226" s="129"/>
-      <c r="F226" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="H226" s="22"/>
-      <c r="I226" s="21"/>
-      <c r="J226" s="21"/>
-      <c r="K226" s="19"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="162"/>
-      <c r="B227" s="129"/>
-      <c r="C227" s="141"/>
-      <c r="D227" s="129"/>
-      <c r="F227" s="20" t="s">
-        <v>240</v>
-      </c>
       <c r="H227" s="22"/>
-      <c r="I227" s="21"/>
-      <c r="J227" s="21"/>
+      <c r="I227" s="29"/>
+      <c r="J227" s="29"/>
       <c r="K227" s="19"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="162"/>
-      <c r="B228" s="129"/>
-      <c r="C228" s="142"/>
-      <c r="D228" s="130"/>
+      <c r="A228" s="139"/>
+      <c r="B228" s="136"/>
+      <c r="C228" s="153" t="s">
+        <v>227</v>
+      </c>
+      <c r="D228" s="135" t="s">
+        <v>227</v>
+      </c>
       <c r="F228" s="20" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="H228" s="22"/>
-      <c r="I228" s="21"/>
-      <c r="J228" s="21"/>
+      <c r="I228" s="29"/>
+      <c r="J228" s="29"/>
       <c r="K228" s="19"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="128" t="s">
-        <v>515</v>
-      </c>
-      <c r="B229" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="C229" s="30"/>
-      <c r="D229" s="30"/>
-      <c r="F229" s="20"/>
+      <c r="A229" s="139"/>
+      <c r="B229" s="136"/>
+      <c r="C229" s="154"/>
+      <c r="D229" s="136"/>
+      <c r="F229" s="20" t="s">
+        <v>228</v>
+      </c>
       <c r="H229" s="22"/>
-      <c r="I229" s="21"/>
-      <c r="J229" s="21"/>
+      <c r="I229" s="29"/>
+      <c r="J229" s="29"/>
       <c r="K229" s="19"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="129"/>
-      <c r="B230" s="128" t="s">
-        <v>243</v>
-      </c>
-      <c r="C230" s="128" t="s">
-        <v>244</v>
-      </c>
-      <c r="D230" s="128"/>
+      <c r="A230" s="139"/>
+      <c r="B230" s="136"/>
+      <c r="C230" s="154"/>
+      <c r="D230" s="136"/>
       <c r="F230" s="20" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="H230" s="22"/>
       <c r="I230" s="21"/>
@@ -6971,12 +7130,12 @@
       <c r="K230" s="19"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="129"/>
-      <c r="B231" s="129"/>
-      <c r="C231" s="129"/>
-      <c r="D231" s="129"/>
+      <c r="A231" s="139"/>
+      <c r="B231" s="136"/>
+      <c r="C231" s="154"/>
+      <c r="D231" s="136"/>
       <c r="F231" s="20" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="H231" s="22"/>
       <c r="I231" s="21"/>
@@ -6984,12 +7143,12 @@
       <c r="K231" s="19"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="129"/>
-      <c r="B232" s="129"/>
-      <c r="C232" s="129"/>
-      <c r="D232" s="129"/>
+      <c r="A232" s="139"/>
+      <c r="B232" s="136"/>
+      <c r="C232" s="154"/>
+      <c r="D232" s="136"/>
       <c r="F232" s="20" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="H232" s="22"/>
       <c r="I232" s="21"/>
@@ -6997,523 +7156,483 @@
       <c r="K232" s="19"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="129"/>
-      <c r="B233" s="129"/>
-      <c r="C233" s="129"/>
-      <c r="D233" s="129"/>
-      <c r="F233" s="37" t="s">
+      <c r="A233" s="139"/>
+      <c r="B233" s="136"/>
+      <c r="C233" s="154"/>
+      <c r="D233" s="136"/>
+      <c r="F233" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H233" s="22"/>
+      <c r="I233" s="21"/>
+      <c r="J233" s="21"/>
+      <c r="K233" s="19"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" s="139"/>
+      <c r="B234" s="136"/>
+      <c r="C234" s="154"/>
+      <c r="D234" s="136"/>
+      <c r="F234" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H234" s="22"/>
+      <c r="I234" s="21"/>
+      <c r="J234" s="21"/>
+      <c r="K234" s="19"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" s="139"/>
+      <c r="B235" s="136"/>
+      <c r="C235" s="154"/>
+      <c r="D235" s="136"/>
+      <c r="F235" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H235" s="22"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="21"/>
+      <c r="K235" s="19"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" s="139"/>
+      <c r="B236" s="136"/>
+      <c r="C236" s="154"/>
+      <c r="D236" s="136"/>
+      <c r="F236" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H236" s="22"/>
+      <c r="I236" s="21"/>
+      <c r="J236" s="21"/>
+      <c r="K236" s="19"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237" s="139"/>
+      <c r="B237" s="136"/>
+      <c r="C237" s="154"/>
+      <c r="D237" s="136"/>
+      <c r="F237" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H237" s="22"/>
+      <c r="I237" s="21"/>
+      <c r="J237" s="21"/>
+      <c r="K237" s="19"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238" s="139"/>
+      <c r="B238" s="136"/>
+      <c r="C238" s="154"/>
+      <c r="D238" s="136"/>
+      <c r="F238" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H238" s="22"/>
+      <c r="I238" s="21"/>
+      <c r="J238" s="21"/>
+      <c r="K238" s="19"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239" s="139"/>
+      <c r="B239" s="136"/>
+      <c r="C239" s="154"/>
+      <c r="D239" s="136"/>
+      <c r="F239" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="H239" s="22"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="21"/>
+      <c r="K239" s="19"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240" s="139"/>
+      <c r="B240" s="136"/>
+      <c r="C240" s="154"/>
+      <c r="D240" s="136"/>
+      <c r="F240" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H240" s="22"/>
+      <c r="I240" s="21"/>
+      <c r="J240" s="21"/>
+      <c r="K240" s="19"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241" s="139"/>
+      <c r="B241" s="136"/>
+      <c r="C241" s="154"/>
+      <c r="D241" s="136"/>
+      <c r="F241" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H241" s="22"/>
+      <c r="I241" s="21"/>
+      <c r="J241" s="21"/>
+      <c r="K241" s="19"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242" s="139"/>
+      <c r="B242" s="136"/>
+      <c r="C242" s="154"/>
+      <c r="D242" s="136"/>
+      <c r="F242" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="H242" s="22"/>
+      <c r="I242" s="21"/>
+      <c r="J242" s="21"/>
+      <c r="K242" s="19"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243" s="139"/>
+      <c r="B243" s="136"/>
+      <c r="C243" s="154"/>
+      <c r="D243" s="136"/>
+      <c r="F243" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="H243" s="22"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="21"/>
+      <c r="K243" s="19"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244" s="139"/>
+      <c r="B244" s="136"/>
+      <c r="C244" s="154"/>
+      <c r="D244" s="136"/>
+      <c r="F244" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H244" s="22"/>
+      <c r="I244" s="21"/>
+      <c r="J244" s="21"/>
+      <c r="K244" s="19"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245" s="139"/>
+      <c r="B245" s="136"/>
+      <c r="C245" s="154"/>
+      <c r="D245" s="136"/>
+      <c r="F245" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="H245" s="22"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="21"/>
+      <c r="K245" s="19"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246" s="139"/>
+      <c r="B246" s="136"/>
+      <c r="C246" s="154"/>
+      <c r="D246" s="136"/>
+      <c r="F246" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="H246" s="22"/>
+      <c r="I246" s="21"/>
+      <c r="J246" s="21"/>
+      <c r="K246" s="19"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247" s="139"/>
+      <c r="B247" s="136"/>
+      <c r="C247" s="154"/>
+      <c r="D247" s="136"/>
+      <c r="F247" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="H247" s="22"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="21"/>
+      <c r="K247" s="19"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248" s="139"/>
+      <c r="B248" s="136"/>
+      <c r="C248" s="155"/>
+      <c r="D248" s="137"/>
+      <c r="F248" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H248" s="22"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="21"/>
+      <c r="K248" s="19"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" s="135" t="s">
+        <v>515</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C249" s="30"/>
+      <c r="D249" s="30"/>
+      <c r="F249" s="20"/>
+      <c r="H249" s="22"/>
+      <c r="I249" s="21"/>
+      <c r="J249" s="21"/>
+      <c r="K249" s="19"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250" s="136"/>
+      <c r="B250" s="135" t="s">
+        <v>243</v>
+      </c>
+      <c r="C250" s="135" t="s">
+        <v>244</v>
+      </c>
+      <c r="D250" s="135"/>
+      <c r="F250" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H250" s="22"/>
+      <c r="I250" s="21"/>
+      <c r="J250" s="21"/>
+      <c r="K250" s="19"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251" s="136"/>
+      <c r="B251" s="136"/>
+      <c r="C251" s="136"/>
+      <c r="D251" s="136"/>
+      <c r="F251" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H251" s="22"/>
+      <c r="I251" s="21"/>
+      <c r="J251" s="21"/>
+      <c r="K251" s="19"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" s="136"/>
+      <c r="B252" s="136"/>
+      <c r="C252" s="136"/>
+      <c r="D252" s="136"/>
+      <c r="F252" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H252" s="22"/>
+      <c r="I252" s="21"/>
+      <c r="J252" s="21"/>
+      <c r="K252" s="19"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" s="136"/>
+      <c r="B253" s="136"/>
+      <c r="C253" s="136"/>
+      <c r="D253" s="136"/>
+      <c r="F253" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="H233" s="38"/>
-      <c r="I233" s="39"/>
-      <c r="J233" s="39"/>
-      <c r="K233" s="40"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="129"/>
-      <c r="B234" s="129"/>
-      <c r="C234" s="129"/>
-      <c r="D234" s="129"/>
-      <c r="F234" s="37" t="s">
-        <v>507</v>
-      </c>
-      <c r="H234" s="38"/>
-      <c r="I234" s="39"/>
-      <c r="J234" s="39"/>
-      <c r="K234" s="40"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="129"/>
-      <c r="B235" s="129"/>
-      <c r="C235" s="129"/>
-      <c r="D235" s="129"/>
-      <c r="F235" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="H235" s="38"/>
-      <c r="I235" s="39"/>
-      <c r="J235" s="39"/>
-      <c r="K235" s="40"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="129"/>
-      <c r="B236" s="129"/>
-      <c r="C236" s="129"/>
-      <c r="D236" s="129"/>
-      <c r="F236" s="37" t="s">
-        <v>509</v>
-      </c>
-      <c r="H236" s="38"/>
-      <c r="I236" s="39"/>
-      <c r="J236" s="39"/>
-      <c r="K236" s="40"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="129"/>
-      <c r="B237" s="129"/>
-      <c r="C237" s="129"/>
-      <c r="D237" s="129"/>
-      <c r="F237" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="H237" s="38"/>
-      <c r="I237" s="39"/>
-      <c r="J237" s="39"/>
-      <c r="K237" s="40"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="129"/>
-      <c r="B238" s="129"/>
-      <c r="C238" s="129"/>
-      <c r="D238" s="129"/>
-      <c r="F238" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="H238" s="38"/>
-      <c r="I238" s="39"/>
-      <c r="J238" s="39"/>
-      <c r="K238" s="40"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="129"/>
-      <c r="B239" s="129"/>
-      <c r="C239" s="130"/>
-      <c r="D239" s="130"/>
-      <c r="F239" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="H239" s="38"/>
-      <c r="I239" s="39"/>
-      <c r="J239" s="39"/>
-      <c r="K239" s="40"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="129"/>
-      <c r="B240" s="129"/>
-      <c r="C240" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="D240" s="41"/>
-      <c r="F240" s="37"/>
-      <c r="H240" s="38"/>
-      <c r="I240" s="39"/>
-      <c r="J240" s="39"/>
-      <c r="K240" s="40"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="129"/>
-      <c r="B241" s="129"/>
-      <c r="C241" s="122" t="s">
-        <v>251</v>
-      </c>
-      <c r="D241" s="122"/>
-      <c r="F241" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="H241" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="I241" s="39"/>
-      <c r="J241" s="39"/>
-      <c r="K241" s="40"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="129"/>
-      <c r="B242" s="129"/>
-      <c r="C242" s="123"/>
-      <c r="D242" s="123"/>
-      <c r="F242" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="H242" s="38"/>
-      <c r="I242" s="39"/>
-      <c r="J242" s="39"/>
-      <c r="K242" s="40"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="129"/>
-      <c r="B243" s="129"/>
-      <c r="C243" s="123"/>
-      <c r="D243" s="123"/>
-      <c r="F243" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="H243" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="I243" s="39"/>
-      <c r="J243" s="39"/>
-      <c r="K243" s="40"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="129"/>
-      <c r="B244" s="129"/>
-      <c r="C244" s="123"/>
-      <c r="D244" s="123"/>
-      <c r="F244" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="H244" s="38"/>
-      <c r="I244" s="39"/>
-      <c r="J244" s="39"/>
-      <c r="K244" s="40"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="129"/>
-      <c r="B245" s="129"/>
-      <c r="C245" s="123"/>
-      <c r="D245" s="123"/>
-      <c r="F245" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="H245" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="I245" s="39"/>
-      <c r="J245" s="39"/>
-      <c r="K245" s="40"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="129"/>
-      <c r="B246" s="129"/>
-      <c r="C246" s="123"/>
-      <c r="D246" s="123"/>
-      <c r="F246" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="H246" s="38"/>
-      <c r="I246" s="39"/>
-      <c r="J246" s="39"/>
-      <c r="K246" s="40"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="129"/>
-      <c r="B247" s="129"/>
-      <c r="C247" s="123"/>
-      <c r="D247" s="123"/>
-      <c r="F247" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="H247" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="I247" s="39"/>
-      <c r="J247" s="39"/>
-      <c r="K247" s="40"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="129"/>
-      <c r="B248" s="129"/>
-      <c r="C248" s="123"/>
-      <c r="D248" s="123"/>
-      <c r="F248" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H248" s="38"/>
-      <c r="I248" s="39"/>
-      <c r="J248" s="39"/>
-      <c r="K248" s="40"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="129"/>
-      <c r="B249" s="129"/>
-      <c r="C249" s="123"/>
-      <c r="D249" s="123"/>
-      <c r="F249" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="H249" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="I249" s="39"/>
-      <c r="J249" s="39"/>
-      <c r="K249" s="40"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="129"/>
-      <c r="B250" s="129"/>
-      <c r="C250" s="123"/>
-      <c r="D250" s="123"/>
-      <c r="F250" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="H250" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="I250" s="39"/>
-      <c r="J250" s="39"/>
-      <c r="K250" s="40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="129"/>
-      <c r="B251" s="129"/>
-      <c r="C251" s="124"/>
-      <c r="D251" s="124"/>
-      <c r="F251" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="H251" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="I251" s="39"/>
-      <c r="J251" s="39"/>
-      <c r="K251" s="40"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="129"/>
-      <c r="B252" s="129"/>
-      <c r="C252" s="125" t="s">
-        <v>261</v>
-      </c>
-      <c r="D252" s="125"/>
-      <c r="F252" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H252" s="38"/>
-      <c r="I252" s="39"/>
-      <c r="J252" s="39"/>
-      <c r="K252" s="40"/>
-    </row>
-    <row r="253" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="129"/>
-      <c r="B253" s="129"/>
-      <c r="C253" s="126"/>
-      <c r="D253" s="126"/>
-      <c r="F253" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H253" s="38" t="s">
-        <v>263</v>
-      </c>
+      <c r="H253" s="38"/>
       <c r="I253" s="39"/>
       <c r="J253" s="39"/>
       <c r="K253" s="40"/>
     </row>
-    <row r="254" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="129"/>
-      <c r="B254" s="129"/>
-      <c r="C254" s="126"/>
-      <c r="D254" s="126"/>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254" s="136"/>
+      <c r="B254" s="136"/>
+      <c r="C254" s="136"/>
+      <c r="D254" s="136"/>
       <c r="F254" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="H254" s="38" t="s">
-        <v>265</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="H254" s="38"/>
       <c r="I254" s="39"/>
       <c r="J254" s="39"/>
       <c r="K254" s="40"/>
     </row>
-    <row r="255" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="129"/>
-      <c r="B255" s="129"/>
-      <c r="C255" s="127"/>
-      <c r="D255" s="127"/>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255" s="136"/>
+      <c r="B255" s="136"/>
+      <c r="C255" s="136"/>
+      <c r="D255" s="136"/>
       <c r="F255" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="H255" s="38" t="s">
-        <v>267</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="H255" s="38"/>
       <c r="I255" s="39"/>
       <c r="J255" s="39"/>
       <c r="K255" s="40"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="129"/>
-      <c r="B256" s="129"/>
-      <c r="C256" s="125" t="s">
-        <v>268</v>
-      </c>
-      <c r="D256" s="125"/>
+      <c r="A256" s="136"/>
+      <c r="B256" s="136"/>
+      <c r="C256" s="136"/>
+      <c r="D256" s="136"/>
       <c r="F256" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H256" s="38" t="s">
-        <v>157</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="H256" s="38"/>
       <c r="I256" s="39"/>
       <c r="J256" s="39"/>
       <c r="K256" s="40"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="129"/>
-      <c r="B257" s="129"/>
-      <c r="C257" s="126"/>
-      <c r="D257" s="126"/>
+      <c r="A257" s="136"/>
+      <c r="B257" s="136"/>
+      <c r="C257" s="136"/>
+      <c r="D257" s="136"/>
       <c r="F257" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="H257" s="38" t="s">
-        <v>157</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H257" s="38"/>
       <c r="I257" s="39"/>
       <c r="J257" s="39"/>
       <c r="K257" s="40"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="129"/>
-      <c r="B258" s="129"/>
-      <c r="C258" s="126"/>
-      <c r="D258" s="126"/>
+      <c r="A258" s="136"/>
+      <c r="B258" s="136"/>
+      <c r="C258" s="136"/>
+      <c r="D258" s="136"/>
       <c r="F258" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="H258" s="38" t="s">
-        <v>157</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H258" s="38"/>
       <c r="I258" s="39"/>
       <c r="J258" s="39"/>
       <c r="K258" s="40"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="129"/>
-      <c r="B259" s="129"/>
-      <c r="C259" s="127"/>
-      <c r="D259" s="127"/>
+      <c r="A259" s="136"/>
+      <c r="B259" s="136"/>
+      <c r="C259" s="137"/>
+      <c r="D259" s="137"/>
       <c r="F259" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="H259" s="38" t="s">
-        <v>157</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H259" s="38"/>
       <c r="I259" s="39"/>
       <c r="J259" s="39"/>
       <c r="K259" s="40"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="129"/>
-      <c r="B260" s="129"/>
-      <c r="C260" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="D260" s="122"/>
-      <c r="F260" s="37" t="s">
-        <v>273</v>
-      </c>
+      <c r="A260" s="136"/>
+      <c r="B260" s="136"/>
+      <c r="C260" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D260" s="41"/>
+      <c r="F260" s="37"/>
       <c r="H260" s="38"/>
       <c r="I260" s="39"/>
       <c r="J260" s="39"/>
       <c r="K260" s="40"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="129"/>
-      <c r="B261" s="129"/>
-      <c r="C261" s="144"/>
-      <c r="D261" s="124"/>
+      <c r="A261" s="136"/>
+      <c r="B261" s="136"/>
+      <c r="C261" s="161" t="s">
+        <v>251</v>
+      </c>
+      <c r="D261" s="161"/>
       <c r="F261" s="37" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="H261" s="38" t="s">
-        <v>275</v>
+        <v>510</v>
       </c>
       <c r="I261" s="39"/>
       <c r="J261" s="39"/>
       <c r="K261" s="40"/>
     </row>
-    <row r="262" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A262" s="129"/>
-      <c r="B262" s="129"/>
-      <c r="C262" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="D262" s="44"/>
-      <c r="F262" s="37"/>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262" s="136"/>
+      <c r="B262" s="136"/>
+      <c r="C262" s="162"/>
+      <c r="D262" s="162"/>
+      <c r="F262" s="37" t="s">
+        <v>253</v>
+      </c>
       <c r="H262" s="38"/>
       <c r="I262" s="39"/>
-      <c r="J262" s="39" t="s">
-        <v>277</v>
-      </c>
+      <c r="J262" s="39"/>
       <c r="K262" s="40"/>
     </row>
-    <row r="263" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A263" s="129"/>
-      <c r="B263" s="129"/>
-      <c r="C263" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="D263" s="46"/>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A263" s="136"/>
+      <c r="B263" s="136"/>
+      <c r="C263" s="162"/>
+      <c r="D263" s="162"/>
       <c r="F263" s="37" t="s">
-        <v>279</v>
+        <v>506</v>
       </c>
       <c r="H263" s="38" t="s">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="I263" s="39"/>
       <c r="J263" s="39"/>
-      <c r="K263" s="40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A264" s="129"/>
-      <c r="B264" s="129"/>
-      <c r="C264" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D264" s="48"/>
-      <c r="F264" s="37"/>
+      <c r="K263" s="40"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264" s="136"/>
+      <c r="B264" s="136"/>
+      <c r="C264" s="162"/>
+      <c r="D264" s="162"/>
+      <c r="F264" s="37" t="s">
+        <v>511</v>
+      </c>
       <c r="H264" s="38"/>
       <c r="I264" s="39"/>
-      <c r="J264" s="39" t="s">
-        <v>277</v>
-      </c>
+      <c r="J264" s="39"/>
       <c r="K264" s="40"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="129"/>
-      <c r="B265" s="129"/>
-      <c r="C265" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="D265" s="41"/>
+      <c r="A265" s="136"/>
+      <c r="B265" s="136"/>
+      <c r="C265" s="162"/>
+      <c r="D265" s="162"/>
       <c r="F265" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="H265" s="38"/>
+        <v>512</v>
+      </c>
+      <c r="H265" s="38" t="s">
+        <v>514</v>
+      </c>
       <c r="I265" s="39"/>
       <c r="J265" s="39"/>
       <c r="K265" s="40"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="129"/>
-      <c r="B266" s="129"/>
-      <c r="C266" s="41"/>
-      <c r="D266" s="41"/>
+      <c r="A266" s="136"/>
+      <c r="B266" s="136"/>
+      <c r="C266" s="162"/>
+      <c r="D266" s="162"/>
       <c r="F266" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="H266" s="38" t="s">
-        <v>286</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="H266" s="38"/>
       <c r="I266" s="39"/>
       <c r="J266" s="39"/>
       <c r="K266" s="40"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="129"/>
-      <c r="B267" s="129"/>
-      <c r="C267" s="41"/>
-      <c r="D267" s="41"/>
+      <c r="A267" s="136"/>
+      <c r="B267" s="136"/>
+      <c r="C267" s="162"/>
+      <c r="D267" s="162"/>
       <c r="F267" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="H267" s="38"/>
+        <v>255</v>
+      </c>
+      <c r="H267" s="38" t="s">
+        <v>532</v>
+      </c>
       <c r="I267" s="39"/>
       <c r="J267" s="39"/>
       <c r="K267" s="40"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="129"/>
-      <c r="B268" s="129"/>
-      <c r="C268" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="D268" s="41"/>
+      <c r="A268" s="136"/>
+      <c r="B268" s="136"/>
+      <c r="C268" s="162"/>
+      <c r="D268" s="162"/>
       <c r="F268" s="37" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H268" s="38"/>
       <c r="I268" s="39"/>
@@ -7521,144 +7640,454 @@
       <c r="K268" s="40"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="129"/>
-      <c r="B269" s="129"/>
-      <c r="C269" s="41"/>
-      <c r="D269" s="41"/>
+      <c r="A269" s="136"/>
+      <c r="B269" s="136"/>
+      <c r="C269" s="162"/>
+      <c r="D269" s="162"/>
       <c r="F269" s="37" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="H269" s="38" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="I269" s="39"/>
       <c r="J269" s="39"/>
       <c r="K269" s="40"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="129"/>
-      <c r="B270" s="129"/>
-      <c r="C270" s="41"/>
-      <c r="D270" s="41"/>
-      <c r="F270" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H270" s="38"/>
+      <c r="A270" s="136"/>
+      <c r="B270" s="136"/>
+      <c r="C270" s="162"/>
+      <c r="D270" s="162"/>
+      <c r="F270" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H270" s="38" t="s">
+        <v>258</v>
+      </c>
       <c r="I270" s="39"/>
       <c r="J270" s="39"/>
-      <c r="K270" s="40"/>
+      <c r="K270" s="40" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="129"/>
-      <c r="B271" s="129"/>
-      <c r="C271" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="D271" s="41"/>
-      <c r="F271" s="37"/>
-      <c r="H271" s="38"/>
+      <c r="A271" s="136"/>
+      <c r="B271" s="136"/>
+      <c r="C271" s="163"/>
+      <c r="D271" s="163"/>
+      <c r="F271" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="H271" s="38" t="s">
+        <v>260</v>
+      </c>
       <c r="I271" s="39"/>
       <c r="J271" s="39"/>
       <c r="K271" s="40"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="129"/>
-      <c r="B272" s="130"/>
-      <c r="C272" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="D272" s="41"/>
-      <c r="F272" s="37"/>
+      <c r="A272" s="136"/>
+      <c r="B272" s="136"/>
+      <c r="C272" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="D272" s="164"/>
+      <c r="F272" s="37" t="s">
+        <v>53</v>
+      </c>
       <c r="H272" s="38"/>
       <c r="I272" s="39"/>
       <c r="J272" s="39"/>
       <c r="K272" s="40"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="130"/>
-      <c r="B273" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C273" s="41"/>
-      <c r="D273" s="41"/>
-      <c r="F273" s="37"/>
-      <c r="H273" s="38"/>
+    <row r="273" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="136"/>
+      <c r="B273" s="136"/>
+      <c r="C273" s="165"/>
+      <c r="D273" s="165"/>
+      <c r="F273" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H273" s="38" t="s">
+        <v>263</v>
+      </c>
       <c r="I273" s="39"/>
       <c r="J273" s="39"/>
       <c r="K273" s="40"/>
     </row>
+    <row r="274" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="136"/>
+      <c r="B274" s="136"/>
+      <c r="C274" s="165"/>
+      <c r="D274" s="165"/>
+      <c r="F274" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H274" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="I274" s="39"/>
+      <c r="J274" s="39"/>
+      <c r="K274" s="40"/>
+    </row>
+    <row r="275" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="136"/>
+      <c r="B275" s="136"/>
+      <c r="C275" s="166"/>
+      <c r="D275" s="166"/>
+      <c r="F275" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="H275" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="I275" s="39"/>
+      <c r="J275" s="39"/>
+      <c r="K275" s="40"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" s="136"/>
+      <c r="B276" s="136"/>
+      <c r="C276" s="164" t="s">
+        <v>268</v>
+      </c>
+      <c r="D276" s="164"/>
+      <c r="F276" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H276" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I276" s="39"/>
+      <c r="J276" s="39"/>
+      <c r="K276" s="40"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" s="136"/>
+      <c r="B277" s="136"/>
+      <c r="C277" s="165"/>
+      <c r="D277" s="165"/>
+      <c r="F277" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="H277" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I277" s="39"/>
+      <c r="J277" s="39"/>
+      <c r="K277" s="40"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" s="136"/>
+      <c r="B278" s="136"/>
+      <c r="C278" s="165"/>
+      <c r="D278" s="165"/>
+      <c r="F278" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="H278" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I278" s="39"/>
+      <c r="J278" s="39"/>
+      <c r="K278" s="40"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" s="136"/>
+      <c r="B279" s="136"/>
+      <c r="C279" s="166"/>
+      <c r="D279" s="166"/>
+      <c r="F279" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H279" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I279" s="39"/>
+      <c r="J279" s="39"/>
+      <c r="K279" s="40"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280" s="136"/>
+      <c r="B280" s="136"/>
+      <c r="C280" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="D280" s="161"/>
+      <c r="F280" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="H280" s="38"/>
+      <c r="I280" s="39"/>
+      <c r="J280" s="39"/>
+      <c r="K280" s="40"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281" s="136"/>
+      <c r="B281" s="136"/>
+      <c r="C281" s="157"/>
+      <c r="D281" s="163"/>
+      <c r="F281" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H281" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I281" s="39"/>
+      <c r="J281" s="39"/>
+      <c r="K281" s="40"/>
+    </row>
+    <row r="282" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A282" s="136"/>
+      <c r="B282" s="136"/>
+      <c r="C282" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D282" s="44"/>
+      <c r="F282" s="37"/>
+      <c r="H282" s="38"/>
+      <c r="I282" s="39"/>
+      <c r="J282" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K282" s="40"/>
+    </row>
+    <row r="283" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A283" s="136"/>
+      <c r="B283" s="136"/>
+      <c r="C283" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D283" s="46"/>
+      <c r="F283" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H283" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="I283" s="39"/>
+      <c r="J283" s="39"/>
+      <c r="K283" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A284" s="136"/>
+      <c r="B284" s="136"/>
+      <c r="C284" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D284" s="48"/>
+      <c r="F284" s="37"/>
+      <c r="H284" s="38"/>
+      <c r="I284" s="39"/>
+      <c r="J284" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K284" s="40"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285" s="136"/>
+      <c r="B285" s="136"/>
+      <c r="C285" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D285" s="41"/>
+      <c r="F285" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H285" s="38"/>
+      <c r="I285" s="39"/>
+      <c r="J285" s="39"/>
+      <c r="K285" s="40"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A286" s="136"/>
+      <c r="B286" s="136"/>
+      <c r="C286" s="41"/>
+      <c r="D286" s="41"/>
+      <c r="F286" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H286" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="I286" s="39"/>
+      <c r="J286" s="39"/>
+      <c r="K286" s="40"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A287" s="136"/>
+      <c r="B287" s="136"/>
+      <c r="C287" s="41"/>
+      <c r="D287" s="41"/>
+      <c r="F287" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="H287" s="38"/>
+      <c r="I287" s="39"/>
+      <c r="J287" s="39"/>
+      <c r="K287" s="40"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A288" s="136"/>
+      <c r="B288" s="136"/>
+      <c r="C288" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D288" s="41"/>
+      <c r="F288" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="H288" s="38"/>
+      <c r="I288" s="39"/>
+      <c r="J288" s="39"/>
+      <c r="K288" s="40"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289" s="136"/>
+      <c r="B289" s="136"/>
+      <c r="C289" s="41"/>
+      <c r="D289" s="41"/>
+      <c r="F289" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H289" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="I289" s="39"/>
+      <c r="J289" s="39"/>
+      <c r="K289" s="40"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290" s="136"/>
+      <c r="B290" s="136"/>
+      <c r="C290" s="41"/>
+      <c r="D290" s="41"/>
+      <c r="F290" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="H290" s="38"/>
+      <c r="I290" s="39"/>
+      <c r="J290" s="39"/>
+      <c r="K290" s="40"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A291" s="136"/>
+      <c r="B291" s="136"/>
+      <c r="C291" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D291" s="41"/>
+      <c r="F291" s="37"/>
+      <c r="H291" s="38"/>
+      <c r="I291" s="39"/>
+      <c r="J291" s="39"/>
+      <c r="K291" s="40"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A292" s="136"/>
+      <c r="B292" s="137"/>
+      <c r="C292" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D292" s="41"/>
+      <c r="F292" s="37"/>
+      <c r="H292" s="38"/>
+      <c r="I292" s="39"/>
+      <c r="J292" s="39"/>
+      <c r="K292" s="40"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A293" s="137"/>
+      <c r="B293" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" s="41"/>
+      <c r="D293" s="41"/>
+      <c r="F293" s="37"/>
+      <c r="H293" s="38"/>
+      <c r="I293" s="39"/>
+      <c r="J293" s="39"/>
+      <c r="K293" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="74">
+    <mergeCell ref="B37:B49"/>
+    <mergeCell ref="C137:C144"/>
+    <mergeCell ref="D261:D271"/>
+    <mergeCell ref="D272:D275"/>
+    <mergeCell ref="D276:D279"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="D180:D210"/>
+    <mergeCell ref="D211:D227"/>
+    <mergeCell ref="D228:D248"/>
+    <mergeCell ref="D250:D259"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C164:C179"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C180:C210"/>
+    <mergeCell ref="C211:C227"/>
+    <mergeCell ref="C228:C248"/>
+    <mergeCell ref="C261:C271"/>
+    <mergeCell ref="C272:C275"/>
+    <mergeCell ref="C276:C279"/>
+    <mergeCell ref="C250:C259"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C105"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="A249:A293"/>
+    <mergeCell ref="B2:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B59:B86"/>
+    <mergeCell ref="B87:B124"/>
+    <mergeCell ref="B125:B154"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B164:B248"/>
+    <mergeCell ref="B250:B292"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A31:A58"/>
+    <mergeCell ref="A59:A163"/>
+    <mergeCell ref="A164:A248"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C50:C53"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="C40:C46"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A229:A273"/>
-    <mergeCell ref="B2:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="B56:B82"/>
-    <mergeCell ref="B83:B112"/>
-    <mergeCell ref="B113:B134"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B144:B228"/>
-    <mergeCell ref="B230:B272"/>
-    <mergeCell ref="A2:A30"/>
-    <mergeCell ref="A31:A55"/>
-    <mergeCell ref="A56:A143"/>
-    <mergeCell ref="A144:A228"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C119:C124"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C144:C159"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="C160:C190"/>
-    <mergeCell ref="C191:C207"/>
-    <mergeCell ref="C208:C228"/>
-    <mergeCell ref="C241:C251"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="C256:C259"/>
-    <mergeCell ref="C230:C239"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D154:D159"/>
-    <mergeCell ref="D241:D251"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="D256:D259"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="D160:D190"/>
-    <mergeCell ref="D191:D207"/>
-    <mergeCell ref="D208:D228"/>
-    <mergeCell ref="D230:D239"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7671,7 +8100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="C28" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="C41" sqref="C41:C44"/>
     </sheetView>
   </sheetViews>
@@ -7725,25 +8154,25 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="170" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="191" t="s">
+      <c r="C3" s="180" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="175" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="169" t="s">
+      <c r="E3" s="197" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="189" t="s">
+      <c r="F3" s="175" t="s">
         <v>308</v>
       </c>
       <c r="G3" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="212" t="s">
         <v>309</v>
       </c>
       <c r="I3" s="69" t="s">
@@ -7754,13 +8183,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="214"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="189"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="175"/>
       <c r="G4" s="70"/>
-      <c r="H4" s="166"/>
+      <c r="H4" s="213"/>
       <c r="I4" s="69" t="s">
         <v>312</v>
       </c>
@@ -7769,8 +8198,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="214"/>
-      <c r="C5" s="201"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="71" t="s">
         <v>313</v>
       </c>
@@ -7794,8 +8223,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="214"/>
-      <c r="C6" s="201"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="69" t="s">
         <v>112</v>
       </c>
@@ -7817,8 +8246,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="214"/>
-      <c r="C7" s="201"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="69" t="s">
         <v>322</v>
       </c>
@@ -7838,21 +8267,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="214"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="187" t="s">
+      <c r="B8" s="170"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="176" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="180" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="176" t="s">
         <v>327</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="214" t="s">
         <v>329</v>
       </c>
       <c r="I8" s="71" t="s">
@@ -7863,13 +8292,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="214"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="187"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="176"/>
       <c r="G9" s="69"/>
-      <c r="H9" s="168"/>
+      <c r="H9" s="215"/>
       <c r="I9" s="71" t="s">
         <v>331</v>
       </c>
@@ -7878,19 +8307,19 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="214"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="187" t="s">
+      <c r="B10" s="170"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="176" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="191" t="s">
+      <c r="E10" s="180" t="s">
         <v>326</v>
       </c>
-      <c r="F10" s="187" t="s">
+      <c r="F10" s="176" t="s">
         <v>327</v>
       </c>
       <c r="G10" s="68"/>
-      <c r="H10" s="167" t="s">
+      <c r="H10" s="214" t="s">
         <v>333</v>
       </c>
       <c r="I10" s="71" t="s">
@@ -7901,13 +8330,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="214"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="187"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="70"/>
-      <c r="H11" s="168"/>
+      <c r="H11" s="215"/>
       <c r="I11" s="71" t="s">
         <v>331</v>
       </c>
@@ -7916,19 +8345,19 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="214"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="189" t="s">
+      <c r="B12" s="170"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="175" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="169" t="s">
+      <c r="E12" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="F12" s="188" t="s">
+      <c r="F12" s="209" t="s">
         <v>335</v>
       </c>
       <c r="G12" s="74"/>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="212" t="s">
         <v>336</v>
       </c>
       <c r="I12" s="73" t="s">
@@ -7939,13 +8368,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="214"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="188"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="209"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="166"/>
+      <c r="H13" s="213"/>
       <c r="I13" s="73" t="s">
         <v>338</v>
       </c>
@@ -7954,21 +8383,21 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="214"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="189" t="s">
+      <c r="B14" s="170"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="175" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="189" t="s">
+      <c r="F14" s="175" t="s">
         <v>340</v>
       </c>
       <c r="G14" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="H14" s="165" t="s">
+      <c r="H14" s="212" t="s">
         <v>342</v>
       </c>
       <c r="I14" s="69" t="s">
@@ -7979,13 +8408,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="214"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="189"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="175"/>
       <c r="G15" s="70"/>
-      <c r="H15" s="166"/>
+      <c r="H15" s="213"/>
       <c r="I15" s="69" t="s">
         <v>343</v>
       </c>
@@ -7994,15 +8423,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="214"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="188" t="s">
+      <c r="B16" s="170"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="209" t="s">
         <v>344</v>
       </c>
       <c r="G16" s="69"/>
-      <c r="H16" s="169" t="s">
+      <c r="H16" s="197" t="s">
         <v>345</v>
       </c>
       <c r="I16" s="69" t="s">
@@ -8013,15 +8442,15 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="214"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="188"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="209"/>
       <c r="G17" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="170"/>
+      <c r="H17" s="199"/>
       <c r="I17" s="69" t="s">
         <v>321</v>
       </c>
@@ -8030,15 +8459,15 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="214"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="188"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="209"/>
       <c r="G18" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="H18" s="170"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="69" t="s">
         <v>349</v>
       </c>
@@ -8047,13 +8476,13 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="214"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="188"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="209"/>
       <c r="G19" s="76"/>
-      <c r="H19" s="170"/>
+      <c r="H19" s="199"/>
       <c r="I19" s="69" t="s">
         <v>350</v>
       </c>
@@ -8062,13 +8491,13 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="214"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="188"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="209"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="171"/>
+      <c r="H20" s="198"/>
       <c r="I20" s="69" t="s">
         <v>352</v>
       </c>
@@ -8077,23 +8506,23 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="215" t="s">
+      <c r="B21" s="171" t="s">
         <v>353</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="183" t="s">
         <v>354</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="167" t="s">
         <v>355</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="167" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="180" t="s">
+      <c r="F21" s="167" t="s">
         <v>357</v>
       </c>
-      <c r="G21" s="180"/>
-      <c r="H21" s="172" t="s">
+      <c r="G21" s="167"/>
+      <c r="H21" s="200" t="s">
         <v>358</v>
       </c>
       <c r="I21" s="77" t="s">
@@ -8104,13 +8533,13 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="215"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="173"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="201"/>
       <c r="I22" s="77" t="s">
         <v>360</v>
       </c>
@@ -8119,13 +8548,13 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="215"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="173"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="201"/>
       <c r="I23" s="77" t="s">
         <v>361</v>
       </c>
@@ -8134,13 +8563,13 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="215"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="174"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="202"/>
       <c r="I24" s="77" t="s">
         <v>362</v>
       </c>
@@ -8149,19 +8578,19 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="215"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="180" t="s">
+      <c r="B25" s="171"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="167" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="172" t="s">
+      <c r="E25" s="200" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="185" t="s">
+      <c r="F25" s="208" t="s">
         <v>365</v>
       </c>
       <c r="G25" s="78"/>
-      <c r="H25" s="172" t="s">
+      <c r="H25" s="200" t="s">
         <v>366</v>
       </c>
       <c r="I25" s="77" t="s">
@@ -8172,13 +8601,13 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="215"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="185"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="208"/>
       <c r="G26" s="79"/>
-      <c r="H26" s="173"/>
+      <c r="H26" s="201"/>
       <c r="I26" s="77" t="s">
         <v>360</v>
       </c>
@@ -8187,13 +8616,13 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="215"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="185"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="208"/>
       <c r="G27" s="80"/>
-      <c r="H27" s="174"/>
+      <c r="H27" s="202"/>
       <c r="I27" s="77" t="s">
         <v>368</v>
       </c>
@@ -8202,19 +8631,19 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="215"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="180" t="s">
+      <c r="B28" s="171"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="167" t="s">
         <v>369</v>
       </c>
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="200" t="s">
         <v>364</v>
       </c>
-      <c r="F28" s="180" t="s">
+      <c r="F28" s="167" t="s">
         <v>370</v>
       </c>
       <c r="G28" s="81"/>
-      <c r="H28" s="175" t="s">
+      <c r="H28" s="216" t="s">
         <v>371</v>
       </c>
       <c r="I28" s="77" t="s">
@@ -8225,13 +8654,13 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="215"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="180"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="167"/>
       <c r="G29" s="82"/>
-      <c r="H29" s="176"/>
+      <c r="H29" s="217"/>
       <c r="I29" s="77" t="s">
         <v>373</v>
       </c>
@@ -8240,13 +8669,13 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="215"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="180"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="167"/>
       <c r="G30" s="82"/>
-      <c r="H30" s="176"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="77" t="s">
         <v>374</v>
       </c>
@@ -8255,13 +8684,13 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="215"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="167"/>
       <c r="G31" s="82"/>
-      <c r="H31" s="176"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="77" t="s">
         <v>375</v>
       </c>
@@ -8270,13 +8699,13 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="215"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="167"/>
       <c r="G32" s="82"/>
-      <c r="H32" s="176"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="77" t="s">
         <v>376</v>
       </c>
@@ -8285,13 +8714,13 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="215"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="167"/>
       <c r="G33" s="83"/>
-      <c r="H33" s="177"/>
+      <c r="H33" s="218"/>
       <c r="I33" s="77" t="s">
         <v>377</v>
       </c>
@@ -8300,8 +8729,8 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="215"/>
-      <c r="C34" s="202"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="184"/>
       <c r="D34" s="84" t="s">
         <v>378</v>
       </c>
@@ -8325,21 +8754,21 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="215"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="186" t="s">
+      <c r="B35" s="171"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="174" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="193" t="s">
+      <c r="E35" s="183" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="186" t="s">
+      <c r="F35" s="174" t="s">
         <v>385</v>
       </c>
       <c r="G35" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="H35" s="178" t="s">
+      <c r="H35" s="219" t="s">
         <v>387</v>
       </c>
       <c r="I35" s="84" t="s">
@@ -8350,15 +8779,15 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="215"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="186"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="174"/>
       <c r="G36" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="H36" s="179"/>
+      <c r="H36" s="220"/>
       <c r="I36" s="84" t="s">
         <v>390</v>
       </c>
@@ -8368,8 +8797,8 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="86"/>
-      <c r="B37" s="215"/>
-      <c r="C37" s="202"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="184"/>
       <c r="D37" s="84" t="s">
         <v>391</v>
       </c>
@@ -8407,21 +8836,21 @@
     </row>
     <row r="38" spans="1:25" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="86"/>
-      <c r="B38" s="216"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="180" t="s">
+      <c r="B38" s="172"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="167" t="s">
         <v>339</v>
       </c>
-      <c r="E38" s="180" t="s">
+      <c r="E38" s="167" t="s">
         <v>364</v>
       </c>
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="167" t="s">
         <v>396</v>
       </c>
-      <c r="G38" s="180" t="s">
+      <c r="G38" s="167" t="s">
         <v>516</v>
       </c>
-      <c r="H38" s="180" t="s">
+      <c r="H38" s="167" t="s">
         <v>517</v>
       </c>
       <c r="I38" s="84" t="s">
@@ -8448,13 +8877,13 @@
     </row>
     <row r="39" spans="1:25" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86"/>
-      <c r="B39" s="216"/>
-      <c r="C39" s="203"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
       <c r="I39" s="84" t="s">
         <v>398</v>
       </c>
@@ -8479,13 +8908,13 @@
     </row>
     <row r="40" spans="1:25" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="86"/>
-      <c r="B40" s="216"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
       <c r="I40" s="84" t="s">
         <v>399</v>
       </c>
@@ -8509,25 +8938,25 @@
       <c r="Y40" s="86"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="217" t="s">
+      <c r="B41" s="173" t="s">
         <v>400</v>
       </c>
-      <c r="C41" s="205" t="s">
+      <c r="C41" s="187" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="177" t="s">
         <v>402</v>
       </c>
-      <c r="E41" s="195" t="s">
+      <c r="E41" s="204" t="s">
         <v>403</v>
       </c>
-      <c r="F41" s="163" t="s">
+      <c r="F41" s="210" t="s">
         <v>404</v>
       </c>
-      <c r="G41" s="181" t="s">
+      <c r="G41" s="168" t="s">
         <v>405</v>
       </c>
-      <c r="H41" s="181" t="s">
+      <c r="H41" s="168" t="s">
         <v>406</v>
       </c>
       <c r="I41" s="89" t="s">
@@ -8553,13 +8982,13 @@
       <c r="Y41" s="86"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="217"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="182"/>
-      <c r="H42" s="182"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="169"/>
       <c r="I42" s="89" t="s">
         <v>408</v>
       </c>
@@ -8583,8 +9012,8 @@
       <c r="Y42" s="86"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="217"/>
-      <c r="C43" s="206"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="188"/>
       <c r="D43" s="90" t="s">
         <v>409</v>
       </c>
@@ -8608,8 +9037,8 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="217"/>
-      <c r="C44" s="207"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="189"/>
       <c r="D44" s="89" t="s">
         <v>414</v>
       </c>
@@ -8633,10 +9062,10 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="178" t="s">
         <v>419</v>
       </c>
-      <c r="C45" s="208" t="s">
+      <c r="C45" s="190" t="s">
         <v>420</v>
       </c>
       <c r="D45" s="93" t="s">
@@ -8662,8 +9091,8 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="199"/>
-      <c r="C46" s="209"/>
+      <c r="B46" s="178"/>
+      <c r="C46" s="191"/>
       <c r="D46" s="93" t="s">
         <v>427</v>
       </c>
@@ -8685,21 +9114,21 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="199"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="190" t="s">
+      <c r="B47" s="178"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="196" t="s">
         <v>431</v>
       </c>
-      <c r="E47" s="197" t="s">
+      <c r="E47" s="206" t="s">
         <v>422</v>
       </c>
-      <c r="F47" s="164" t="s">
+      <c r="F47" s="211" t="s">
         <v>432</v>
       </c>
       <c r="G47" s="96" t="s">
         <v>433</v>
       </c>
-      <c r="H47" s="183" t="s">
+      <c r="H47" s="221" t="s">
         <v>434</v>
       </c>
       <c r="I47" s="93" t="s">
@@ -8710,15 +9139,15 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="199"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="198"/>
-      <c r="F48" s="164"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="192"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="211"/>
       <c r="G48" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="H48" s="184"/>
+      <c r="H48" s="222"/>
       <c r="I48" s="93" t="s">
         <v>437</v>
       </c>
@@ -8727,10 +9156,10 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="200" t="s">
+      <c r="B49" s="179" t="s">
         <v>438</v>
       </c>
-      <c r="C49" s="211" t="s">
+      <c r="C49" s="193" t="s">
         <v>439</v>
       </c>
       <c r="D49" s="98" t="s">
@@ -8756,8 +9185,8 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="200"/>
-      <c r="C50" s="212"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="194"/>
       <c r="D50" s="98" t="s">
         <v>445</v>
       </c>
@@ -8781,8 +9210,8 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="200"/>
-      <c r="C51" s="212"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="194"/>
       <c r="D51" s="98" t="s">
         <v>450</v>
       </c>
@@ -8804,8 +9233,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="200"/>
-      <c r="C52" s="212"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="194"/>
       <c r="D52" s="98" t="s">
         <v>453</v>
       </c>
@@ -8829,8 +9258,8 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="200"/>
-      <c r="C53" s="213"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="195"/>
       <c r="D53" s="98" t="s">
         <v>163</v>
       </c>
@@ -8855,6 +9284,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G21:G24"/>
@@ -8871,53 +9347,6 @@
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8982,23 +9411,23 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="223" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="224" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="228" t="s">
+      <c r="D3" s="229" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="229" t="s">
+      <c r="E3" s="230" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="228" t="s">
+      <c r="F3" s="229" t="s">
         <v>308</v>
       </c>
       <c r="G3" s="53"/>
-      <c r="H3" s="219" t="s">
+      <c r="H3" s="227" t="s">
         <v>309</v>
       </c>
       <c r="I3" s="54" t="s">
@@ -9009,13 +9438,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="228"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="229"/>
       <c r="G4" s="55"/>
-      <c r="H4" s="220"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="54" t="s">
         <v>312</v>
       </c>
@@ -9024,8 +9453,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="226"/>
-      <c r="C5" s="227"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="225"/>
       <c r="D5" s="56" t="s">
         <v>313</v>
       </c>
@@ -9047,8 +9476,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="226"/>
-      <c r="C6" s="227"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="225"/>
       <c r="D6" s="54" t="s">
         <v>112</v>
       </c>
@@ -9070,8 +9499,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="226"/>
-      <c r="C7" s="227"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="225"/>
       <c r="D7" s="54" t="s">
         <v>322</v>
       </c>
@@ -9091,21 +9520,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="226"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="221" t="s">
+      <c r="B8" s="223"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="232" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="222" t="s">
+      <c r="E8" s="224" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="221" t="s">
+      <c r="F8" s="232" t="s">
         <v>327</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="H8" s="224" t="s">
+      <c r="H8" s="233" t="s">
         <v>329</v>
       </c>
       <c r="I8" s="56" t="s">
@@ -9116,13 +9545,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="226"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="221"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="232"/>
       <c r="G9" s="54"/>
-      <c r="H9" s="225"/>
+      <c r="H9" s="234"/>
       <c r="I9" s="56" t="s">
         <v>331</v>
       </c>
@@ -9131,19 +9560,19 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="226"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="221" t="s">
+      <c r="B10" s="223"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="232" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="222" t="s">
+      <c r="E10" s="224" t="s">
         <v>326</v>
       </c>
-      <c r="F10" s="221" t="s">
+      <c r="F10" s="232" t="s">
         <v>327</v>
       </c>
       <c r="G10" s="53"/>
-      <c r="H10" s="224" t="s">
+      <c r="H10" s="233" t="s">
         <v>333</v>
       </c>
       <c r="I10" s="56" t="s">
@@ -9154,13 +9583,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="226"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="221"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="232"/>
       <c r="G11" s="55"/>
-      <c r="H11" s="225"/>
+      <c r="H11" s="234"/>
       <c r="I11" s="56" t="s">
         <v>331</v>
       </c>
@@ -9169,19 +9598,19 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="226"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="228" t="s">
+      <c r="B12" s="223"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="229" t="s">
+      <c r="E12" s="230" t="s">
         <v>326</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="235" t="s">
         <v>335</v>
       </c>
       <c r="G12" s="59"/>
-      <c r="H12" s="219" t="s">
+      <c r="H12" s="227" t="s">
         <v>336</v>
       </c>
       <c r="I12" s="58" t="s">
@@ -9192,13 +9621,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="226"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="232"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="235"/>
       <c r="G13" s="60"/>
-      <c r="H13" s="220"/>
+      <c r="H13" s="228"/>
       <c r="I13" s="58" t="s">
         <v>338</v>
       </c>
@@ -9207,21 +9636,21 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="226"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="228" t="s">
+      <c r="B14" s="223"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="229" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="229" t="s">
+      <c r="E14" s="230" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="228" t="s">
+      <c r="F14" s="229" t="s">
         <v>340</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="H14" s="219" t="s">
+      <c r="H14" s="227" t="s">
         <v>342</v>
       </c>
       <c r="I14" s="54" t="s">
@@ -9232,13 +9661,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="226"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="228"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="229"/>
       <c r="G15" s="55"/>
-      <c r="H15" s="220"/>
+      <c r="H15" s="228"/>
       <c r="I15" s="54" t="s">
         <v>343</v>
       </c>
@@ -9247,15 +9676,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="226"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="232" t="s">
+      <c r="B16" s="223"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="235" t="s">
         <v>344</v>
       </c>
       <c r="G16" s="54"/>
-      <c r="H16" s="229" t="s">
+      <c r="H16" s="230" t="s">
         <v>345</v>
       </c>
       <c r="I16" s="54" t="s">
@@ -9266,15 +9695,15 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="226"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="232"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="235"/>
       <c r="G17" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="231"/>
+      <c r="H17" s="237"/>
       <c r="I17" s="54" t="s">
         <v>321</v>
       </c>
@@ -9283,15 +9712,15 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="226"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="231"/>
-      <c r="F18" s="232"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="235"/>
       <c r="G18" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="H18" s="231"/>
+      <c r="H18" s="237"/>
       <c r="I18" s="54" t="s">
         <v>349</v>
       </c>
@@ -9300,13 +9729,13 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="226"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="232"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="235"/>
       <c r="G19" s="61"/>
-      <c r="H19" s="231"/>
+      <c r="H19" s="237"/>
       <c r="I19" s="54" t="s">
         <v>350</v>
       </c>
@@ -9315,13 +9744,13 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="226"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="232"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="235"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="230"/>
+      <c r="H20" s="231"/>
       <c r="I20" s="54" t="s">
         <v>352</v>
       </c>
@@ -9330,23 +9759,23 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="234" t="s">
+      <c r="B21" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="C21" s="222" t="s">
+      <c r="C21" s="224" t="s">
         <v>354</v>
       </c>
-      <c r="D21" s="228" t="s">
+      <c r="D21" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="E21" s="228" t="s">
+      <c r="E21" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="228" t="s">
+      <c r="F21" s="229" t="s">
         <v>357</v>
       </c>
-      <c r="G21" s="228"/>
-      <c r="H21" s="229" t="s">
+      <c r="G21" s="229"/>
+      <c r="H21" s="230" t="s">
         <v>358</v>
       </c>
       <c r="I21" s="54" t="s">
@@ -9357,13 +9786,13 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="234"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="231"/>
+      <c r="B22" s="236"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="229"/>
+      <c r="H22" s="237"/>
       <c r="I22" s="54" t="s">
         <v>360</v>
       </c>
@@ -9372,13 +9801,13 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="234"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="231"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="237"/>
       <c r="I23" s="54" t="s">
         <v>361</v>
       </c>
@@ -9387,13 +9816,13 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="234"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="228"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="230"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="231"/>
       <c r="I24" s="54" t="s">
         <v>362</v>
       </c>
@@ -9402,19 +9831,19 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="234"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="228" t="s">
+      <c r="B25" s="236"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="229" t="s">
+      <c r="E25" s="230" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="232" t="s">
+      <c r="F25" s="235" t="s">
         <v>365</v>
       </c>
       <c r="G25" s="59"/>
-      <c r="H25" s="229" t="s">
+      <c r="H25" s="230" t="s">
         <v>366</v>
       </c>
       <c r="I25" s="54" t="s">
@@ -9425,13 +9854,13 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="234"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="228"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="232"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="235"/>
       <c r="G26" s="61"/>
-      <c r="H26" s="231"/>
+      <c r="H26" s="237"/>
       <c r="I26" s="54" t="s">
         <v>360</v>
       </c>
@@ -9440,13 +9869,13 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="234"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="230"/>
-      <c r="F27" s="232"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="235"/>
       <c r="G27" s="60"/>
-      <c r="H27" s="230"/>
+      <c r="H27" s="231"/>
       <c r="I27" s="54" t="s">
         <v>368</v>
       </c>
@@ -9455,19 +9884,19 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="234"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="228" t="s">
+      <c r="B28" s="236"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="229" t="s">
         <v>369</v>
       </c>
-      <c r="E28" s="229" t="s">
+      <c r="E28" s="230" t="s">
         <v>364</v>
       </c>
-      <c r="F28" s="228" t="s">
+      <c r="F28" s="229" t="s">
         <v>370</v>
       </c>
       <c r="G28" s="53"/>
-      <c r="H28" s="219" t="s">
+      <c r="H28" s="227" t="s">
         <v>371</v>
       </c>
       <c r="I28" s="54" t="s">
@@ -9478,13 +9907,13 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="234"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="231"/>
-      <c r="F29" s="228"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="229"/>
       <c r="G29" s="62"/>
-      <c r="H29" s="233"/>
+      <c r="H29" s="238"/>
       <c r="I29" s="54" t="s">
         <v>373</v>
       </c>
@@ -9493,13 +9922,13 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="234"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="228"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="229"/>
       <c r="G30" s="62"/>
-      <c r="H30" s="233"/>
+      <c r="H30" s="238"/>
       <c r="I30" s="54" t="s">
         <v>374</v>
       </c>
@@ -9508,13 +9937,13 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="234"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="228"/>
+      <c r="B31" s="236"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="229"/>
       <c r="G31" s="62"/>
-      <c r="H31" s="233"/>
+      <c r="H31" s="238"/>
       <c r="I31" s="54" t="s">
         <v>375</v>
       </c>
@@ -9523,13 +9952,13 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="234"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="228"/>
+      <c r="B32" s="236"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="229"/>
       <c r="G32" s="62"/>
-      <c r="H32" s="233"/>
+      <c r="H32" s="238"/>
       <c r="I32" s="54" t="s">
         <v>376</v>
       </c>
@@ -9538,13 +9967,13 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="234"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="228"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="229"/>
       <c r="G33" s="55"/>
-      <c r="H33" s="220"/>
+      <c r="H33" s="228"/>
       <c r="I33" s="54" t="s">
         <v>377</v>
       </c>
@@ -9553,8 +9982,8 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="234"/>
-      <c r="C34" s="227"/>
+      <c r="B34" s="236"/>
+      <c r="C34" s="225"/>
       <c r="D34" s="56" t="s">
         <v>378</v>
       </c>
@@ -9578,21 +10007,21 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="234"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="221" t="s">
+      <c r="B35" s="236"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="232" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="222" t="s">
+      <c r="E35" s="224" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="221" t="s">
+      <c r="F35" s="232" t="s">
         <v>385</v>
       </c>
       <c r="G35" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="H35" s="224" t="s">
+      <c r="H35" s="233" t="s">
         <v>387</v>
       </c>
       <c r="I35" s="56" t="s">
@@ -9603,15 +10032,15 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="234"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="221"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="232"/>
       <c r="G36" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="H36" s="225"/>
+      <c r="H36" s="234"/>
       <c r="I36" s="56" t="s">
         <v>390</v>
       </c>
@@ -9621,8 +10050,8 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
-      <c r="B37" s="234"/>
-      <c r="C37" s="227"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="225"/>
       <c r="D37" s="56" t="s">
         <v>391</v>
       </c>
@@ -9660,21 +10089,21 @@
     </row>
     <row r="38" spans="1:25" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
-      <c r="B38" s="234"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="228" t="s">
+      <c r="B38" s="236"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="229" t="s">
         <v>339</v>
       </c>
-      <c r="E38" s="228" t="s">
+      <c r="E38" s="229" t="s">
         <v>364</v>
       </c>
-      <c r="F38" s="228" t="s">
+      <c r="F38" s="229" t="s">
         <v>396</v>
       </c>
-      <c r="G38" s="228" t="s">
+      <c r="G38" s="229" t="s">
         <v>516</v>
       </c>
-      <c r="H38" s="228" t="s">
+      <c r="H38" s="229" t="s">
         <v>517</v>
       </c>
       <c r="I38" s="56" t="s">
@@ -9701,13 +10130,13 @@
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
-      <c r="B39" s="234"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="228"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="229"/>
       <c r="I39" s="56" t="s">
         <v>398</v>
       </c>
@@ -9732,13 +10161,13 @@
     </row>
     <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
-      <c r="B40" s="234"/>
-      <c r="C40" s="223"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="228"/>
-      <c r="G40" s="228"/>
-      <c r="H40" s="228"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="229"/>
       <c r="I40" s="56" t="s">
         <v>399</v>
       </c>
@@ -9762,25 +10191,25 @@
       <c r="Y40" s="52"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="226" t="s">
+      <c r="B41" s="223" t="s">
         <v>400</v>
       </c>
-      <c r="C41" s="222" t="s">
+      <c r="C41" s="224" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="228" t="s">
+      <c r="D41" s="229" t="s">
         <v>402</v>
       </c>
-      <c r="E41" s="229" t="s">
+      <c r="E41" s="230" t="s">
         <v>403</v>
       </c>
-      <c r="F41" s="232" t="s">
+      <c r="F41" s="235" t="s">
         <v>404</v>
       </c>
-      <c r="G41" s="219" t="s">
+      <c r="G41" s="227" t="s">
         <v>405</v>
       </c>
-      <c r="H41" s="219" t="s">
+      <c r="H41" s="227" t="s">
         <v>406</v>
       </c>
       <c r="I41" s="54" t="s">
@@ -9806,13 +10235,13 @@
       <c r="Y41" s="52"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="226"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="230"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
+      <c r="B42" s="223"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="231"/>
+      <c r="F42" s="235"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
       <c r="I42" s="54" t="s">
         <v>408</v>
       </c>
@@ -9836,8 +10265,8 @@
       <c r="Y42" s="52"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="226"/>
-      <c r="C43" s="227"/>
+      <c r="B43" s="223"/>
+      <c r="C43" s="225"/>
       <c r="D43" s="56" t="s">
         <v>409</v>
       </c>
@@ -9859,8 +10288,8 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="226"/>
-      <c r="C44" s="223"/>
+      <c r="B44" s="223"/>
+      <c r="C44" s="226"/>
       <c r="D44" s="54" t="s">
         <v>414</v>
       </c>
@@ -9884,10 +10313,10 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="226" t="s">
+      <c r="B45" s="223" t="s">
         <v>419</v>
       </c>
-      <c r="C45" s="222" t="s">
+      <c r="C45" s="224" t="s">
         <v>420</v>
       </c>
       <c r="D45" s="56" t="s">
@@ -9913,8 +10342,8 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="226"/>
-      <c r="C46" s="227"/>
+      <c r="B46" s="223"/>
+      <c r="C46" s="225"/>
       <c r="D46" s="56" t="s">
         <v>427</v>
       </c>
@@ -9936,21 +10365,21 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="226"/>
-      <c r="C47" s="227"/>
-      <c r="D47" s="228" t="s">
+      <c r="B47" s="223"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="229" t="s">
         <v>431</v>
       </c>
-      <c r="E47" s="229" t="s">
+      <c r="E47" s="230" t="s">
         <v>422</v>
       </c>
-      <c r="F47" s="221" t="s">
+      <c r="F47" s="232" t="s">
         <v>432</v>
       </c>
       <c r="G47" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="H47" s="224" t="s">
+      <c r="H47" s="233" t="s">
         <v>434</v>
       </c>
       <c r="I47" s="56" t="s">
@@ -9961,15 +10390,15 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="226"/>
-      <c r="C48" s="223"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="230"/>
-      <c r="F48" s="221"/>
+      <c r="B48" s="223"/>
+      <c r="C48" s="226"/>
+      <c r="D48" s="229"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="232"/>
       <c r="G48" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="H48" s="225"/>
+      <c r="H48" s="234"/>
       <c r="I48" s="56" t="s">
         <v>437</v>
       </c>
@@ -9978,10 +10407,10 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="226" t="s">
+      <c r="B49" s="223" t="s">
         <v>438</v>
       </c>
-      <c r="C49" s="222" t="s">
+      <c r="C49" s="224" t="s">
         <v>439</v>
       </c>
       <c r="D49" s="56" t="s">
@@ -10007,8 +10436,8 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="226"/>
-      <c r="C50" s="227"/>
+      <c r="B50" s="223"/>
+      <c r="C50" s="225"/>
       <c r="D50" s="56" t="s">
         <v>445</v>
       </c>
@@ -10032,8 +10461,8 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="226"/>
-      <c r="C51" s="227"/>
+      <c r="B51" s="223"/>
+      <c r="C51" s="225"/>
       <c r="D51" s="56" t="s">
         <v>450</v>
       </c>
@@ -10055,8 +10484,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="226"/>
-      <c r="C52" s="227"/>
+      <c r="B52" s="223"/>
+      <c r="C52" s="225"/>
       <c r="D52" s="56" t="s">
         <v>453</v>
       </c>
@@ -10080,8 +10509,8 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="226"/>
-      <c r="C53" s="223"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="226"/>
       <c r="D53" s="56" t="s">
         <v>163</v>
       </c>
@@ -10106,6 +10535,54 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="H41:H42"/>
@@ -10121,54 +10598,6 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
